--- a/2022/Symphony/JUNE/02.06.2022/MC Bank Statement June-2022.xlsx
+++ b/2022/Symphony/JUNE/02.06.2022/MC Bank Statement June-2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="803" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="803" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="March 2021" sheetId="7" state="hidden" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="226">
   <si>
     <t>Date</t>
   </si>
@@ -705,6 +705,12 @@
   </si>
   <si>
     <t>Bonpara</t>
+  </si>
+  <si>
+    <t>04.02.2022</t>
+  </si>
+  <si>
+    <t>04.06.2022</t>
   </si>
 </sst>
 </file>
@@ -2663,9 +2669,6 @@
     <xf numFmtId="0" fontId="38" fillId="41" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="21" fontId="38" fillId="41" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="38" fillId="38" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2680,9 +2683,6 @@
     </xf>
     <xf numFmtId="1" fontId="38" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="38" fillId="41" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="37" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -2972,6 +2972,12 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="34" fillId="44" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="34" fillId="44" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3128,10 +3134,10 @@
     <xf numFmtId="0" fontId="7" fillId="42" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="44" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="38" fillId="41" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="34" fillId="44" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="21" fontId="38" fillId="41" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5035,13 +5041,13 @@
       <c r="B5" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="261">
+      <c r="C5" s="259">
         <v>28038</v>
       </c>
-      <c r="D5" s="261">
+      <c r="D5" s="259">
         <v>0</v>
       </c>
-      <c r="E5" s="262">
+      <c r="E5" s="260">
         <f>C5-D5</f>
         <v>28038</v>
       </c>
@@ -5051,9 +5057,9 @@
     <row r="6" spans="1:7">
       <c r="A6" s="318"/>
       <c r="B6" s="26"/>
-      <c r="C6" s="261"/>
-      <c r="D6" s="261"/>
-      <c r="E6" s="262">
+      <c r="C6" s="259"/>
+      <c r="D6" s="259"/>
+      <c r="E6" s="260">
         <f t="shared" ref="E6:E69" si="0">E5+C6-D6</f>
         <v>28038</v>
       </c>
@@ -5065,13 +5071,13 @@
       <c r="B7" s="26" t="s">
         <v>218</v>
       </c>
-      <c r="C7" s="261">
+      <c r="C7" s="259">
         <v>0</v>
       </c>
-      <c r="D7" s="261">
+      <c r="D7" s="259">
         <v>0</v>
       </c>
-      <c r="E7" s="262">
+      <c r="E7" s="260">
         <f t="shared" si="0"/>
         <v>28038</v>
       </c>
@@ -5083,13 +5089,13 @@
       <c r="B8" s="26" t="s">
         <v>221</v>
       </c>
-      <c r="C8" s="261">
+      <c r="C8" s="259">
         <v>0</v>
       </c>
-      <c r="D8" s="261">
+      <c r="D8" s="259">
         <v>0</v>
       </c>
-      <c r="E8" s="262">
+      <c r="E8" s="260">
         <f>E7+C8-D8</f>
         <v>28038</v>
       </c>
@@ -5099,9 +5105,9 @@
     <row r="9" spans="1:7">
       <c r="A9" s="318"/>
       <c r="B9" s="26"/>
-      <c r="C9" s="261"/>
-      <c r="D9" s="261"/>
-      <c r="E9" s="262">
+      <c r="C9" s="259"/>
+      <c r="D9" s="259"/>
+      <c r="E9" s="260">
         <f t="shared" si="0"/>
         <v>28038</v>
       </c>
@@ -5111,9 +5117,9 @@
     <row r="10" spans="1:7">
       <c r="A10" s="318"/>
       <c r="B10" s="26"/>
-      <c r="C10" s="263"/>
-      <c r="D10" s="263"/>
-      <c r="E10" s="262">
+      <c r="C10" s="261"/>
+      <c r="D10" s="261"/>
+      <c r="E10" s="260">
         <f t="shared" si="0"/>
         <v>28038</v>
       </c>
@@ -5123,9 +5129,9 @@
     <row r="11" spans="1:7">
       <c r="A11" s="318"/>
       <c r="B11" s="26"/>
-      <c r="C11" s="261"/>
-      <c r="D11" s="261"/>
-      <c r="E11" s="262">
+      <c r="C11" s="259"/>
+      <c r="D11" s="259"/>
+      <c r="E11" s="260">
         <f t="shared" si="0"/>
         <v>28038</v>
       </c>
@@ -5135,9 +5141,9 @@
     <row r="12" spans="1:7">
       <c r="A12" s="318"/>
       <c r="B12" s="26"/>
-      <c r="C12" s="261"/>
-      <c r="D12" s="261"/>
-      <c r="E12" s="262">
+      <c r="C12" s="259"/>
+      <c r="D12" s="259"/>
+      <c r="E12" s="260">
         <f>E11+C12-D12</f>
         <v>28038</v>
       </c>
@@ -5147,9 +5153,9 @@
     <row r="13" spans="1:7">
       <c r="A13" s="318"/>
       <c r="B13" s="26"/>
-      <c r="C13" s="261"/>
-      <c r="D13" s="261"/>
-      <c r="E13" s="262">
+      <c r="C13" s="259"/>
+      <c r="D13" s="259"/>
+      <c r="E13" s="260">
         <f t="shared" si="0"/>
         <v>28038</v>
       </c>
@@ -5159,9 +5165,9 @@
     <row r="14" spans="1:7">
       <c r="A14" s="318"/>
       <c r="B14" s="26"/>
-      <c r="C14" s="261"/>
-      <c r="D14" s="261"/>
-      <c r="E14" s="262">
+      <c r="C14" s="259"/>
+      <c r="D14" s="259"/>
+      <c r="E14" s="260">
         <f t="shared" si="0"/>
         <v>28038</v>
       </c>
@@ -5171,9 +5177,9 @@
     <row r="15" spans="1:7">
       <c r="A15" s="318"/>
       <c r="B15" s="26"/>
-      <c r="C15" s="261"/>
-      <c r="D15" s="261"/>
-      <c r="E15" s="262">
+      <c r="C15" s="259"/>
+      <c r="D15" s="259"/>
+      <c r="E15" s="260">
         <f t="shared" si="0"/>
         <v>28038</v>
       </c>
@@ -5183,9 +5189,9 @@
     <row r="16" spans="1:7">
       <c r="A16" s="318"/>
       <c r="B16" s="26"/>
-      <c r="C16" s="261"/>
-      <c r="D16" s="261"/>
-      <c r="E16" s="262">
+      <c r="C16" s="259"/>
+      <c r="D16" s="259"/>
+      <c r="E16" s="260">
         <f t="shared" si="0"/>
         <v>28038</v>
       </c>
@@ -5195,9 +5201,9 @@
     <row r="17" spans="1:7">
       <c r="A17" s="318"/>
       <c r="B17" s="26"/>
-      <c r="C17" s="261"/>
-      <c r="D17" s="261"/>
-      <c r="E17" s="262">
+      <c r="C17" s="259"/>
+      <c r="D17" s="259"/>
+      <c r="E17" s="260">
         <f t="shared" si="0"/>
         <v>28038</v>
       </c>
@@ -5207,9 +5213,9 @@
     <row r="18" spans="1:7">
       <c r="A18" s="318"/>
       <c r="B18" s="26"/>
-      <c r="C18" s="261"/>
-      <c r="D18" s="261"/>
-      <c r="E18" s="262">
+      <c r="C18" s="259"/>
+      <c r="D18" s="259"/>
+      <c r="E18" s="260">
         <f>E17+C18-D18</f>
         <v>28038</v>
       </c>
@@ -5219,9 +5225,9 @@
     <row r="19" spans="1:7" ht="12.75" customHeight="1">
       <c r="A19" s="318"/>
       <c r="B19" s="26"/>
-      <c r="C19" s="261"/>
-      <c r="D19" s="263"/>
-      <c r="E19" s="262">
+      <c r="C19" s="259"/>
+      <c r="D19" s="261"/>
+      <c r="E19" s="260">
         <f t="shared" si="0"/>
         <v>28038</v>
       </c>
@@ -5231,9 +5237,9 @@
     <row r="20" spans="1:7">
       <c r="A20" s="318"/>
       <c r="B20" s="26"/>
-      <c r="C20" s="261"/>
-      <c r="D20" s="261"/>
-      <c r="E20" s="262">
+      <c r="C20" s="259"/>
+      <c r="D20" s="259"/>
+      <c r="E20" s="260">
         <f t="shared" si="0"/>
         <v>28038</v>
       </c>
@@ -5243,21 +5249,21 @@
     <row r="21" spans="1:7">
       <c r="A21" s="318"/>
       <c r="B21" s="26"/>
-      <c r="C21" s="261"/>
-      <c r="D21" s="261"/>
-      <c r="E21" s="262">
+      <c r="C21" s="259"/>
+      <c r="D21" s="259"/>
+      <c r="E21" s="260">
         <f>E20+C21-D21</f>
         <v>28038</v>
       </c>
-      <c r="F21" s="273"/>
+      <c r="F21" s="271"/>
       <c r="G21" s="2"/>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="318"/>
       <c r="B22" s="26"/>
-      <c r="C22" s="261"/>
-      <c r="D22" s="261"/>
-      <c r="E22" s="262">
+      <c r="C22" s="259"/>
+      <c r="D22" s="259"/>
+      <c r="E22" s="260">
         <f t="shared" si="0"/>
         <v>28038</v>
       </c>
@@ -5267,9 +5273,9 @@
     <row r="23" spans="1:7">
       <c r="A23" s="318"/>
       <c r="B23" s="26"/>
-      <c r="C23" s="261"/>
-      <c r="D23" s="261"/>
-      <c r="E23" s="262">
+      <c r="C23" s="259"/>
+      <c r="D23" s="259"/>
+      <c r="E23" s="260">
         <f>E22+C23-D23</f>
         <v>28038</v>
       </c>
@@ -5279,9 +5285,9 @@
     <row r="24" spans="1:7">
       <c r="A24" s="318"/>
       <c r="B24" s="26"/>
-      <c r="C24" s="261"/>
-      <c r="D24" s="261"/>
-      <c r="E24" s="262">
+      <c r="C24" s="259"/>
+      <c r="D24" s="259"/>
+      <c r="E24" s="260">
         <f t="shared" si="0"/>
         <v>28038</v>
       </c>
@@ -5291,9 +5297,9 @@
     <row r="25" spans="1:7">
       <c r="A25" s="318"/>
       <c r="B25" s="26"/>
-      <c r="C25" s="261"/>
-      <c r="D25" s="261"/>
-      <c r="E25" s="262">
+      <c r="C25" s="259"/>
+      <c r="D25" s="259"/>
+      <c r="E25" s="260">
         <f t="shared" si="0"/>
         <v>28038</v>
       </c>
@@ -5303,9 +5309,9 @@
     <row r="26" spans="1:7">
       <c r="A26" s="318"/>
       <c r="B26" s="26"/>
-      <c r="C26" s="261"/>
-      <c r="D26" s="261"/>
-      <c r="E26" s="262">
+      <c r="C26" s="259"/>
+      <c r="D26" s="259"/>
+      <c r="E26" s="260">
         <f t="shared" si="0"/>
         <v>28038</v>
       </c>
@@ -5315,9 +5321,9 @@
     <row r="27" spans="1:7">
       <c r="A27" s="318"/>
       <c r="B27" s="26"/>
-      <c r="C27" s="261"/>
-      <c r="D27" s="261"/>
-      <c r="E27" s="262">
+      <c r="C27" s="259"/>
+      <c r="D27" s="259"/>
+      <c r="E27" s="260">
         <f t="shared" si="0"/>
         <v>28038</v>
       </c>
@@ -5327,9 +5333,9 @@
     <row r="28" spans="1:7">
       <c r="A28" s="318"/>
       <c r="B28" s="26"/>
-      <c r="C28" s="261"/>
-      <c r="D28" s="261"/>
-      <c r="E28" s="262">
+      <c r="C28" s="259"/>
+      <c r="D28" s="259"/>
+      <c r="E28" s="260">
         <f>E27+C28-D28</f>
         <v>28038</v>
       </c>
@@ -5339,9 +5345,9 @@
     <row r="29" spans="1:7">
       <c r="A29" s="318"/>
       <c r="B29" s="26"/>
-      <c r="C29" s="261"/>
-      <c r="D29" s="261"/>
-      <c r="E29" s="262">
+      <c r="C29" s="259"/>
+      <c r="D29" s="259"/>
+      <c r="E29" s="260">
         <f t="shared" si="0"/>
         <v>28038</v>
       </c>
@@ -5351,9 +5357,9 @@
     <row r="30" spans="1:7">
       <c r="A30" s="318"/>
       <c r="B30" s="26"/>
-      <c r="C30" s="261"/>
-      <c r="D30" s="261"/>
-      <c r="E30" s="262">
+      <c r="C30" s="259"/>
+      <c r="D30" s="259"/>
+      <c r="E30" s="260">
         <f t="shared" si="0"/>
         <v>28038</v>
       </c>
@@ -5363,9 +5369,9 @@
     <row r="31" spans="1:7">
       <c r="A31" s="318"/>
       <c r="B31" s="26"/>
-      <c r="C31" s="261"/>
-      <c r="D31" s="261"/>
-      <c r="E31" s="262">
+      <c r="C31" s="259"/>
+      <c r="D31" s="259"/>
+      <c r="E31" s="260">
         <f t="shared" si="0"/>
         <v>28038</v>
       </c>
@@ -5375,9 +5381,9 @@
     <row r="32" spans="1:7">
       <c r="A32" s="318"/>
       <c r="B32" s="26"/>
-      <c r="C32" s="261"/>
-      <c r="D32" s="261"/>
-      <c r="E32" s="262">
+      <c r="C32" s="259"/>
+      <c r="D32" s="259"/>
+      <c r="E32" s="260">
         <f>E31+C32-D32</f>
         <v>28038</v>
       </c>
@@ -5387,9 +5393,9 @@
     <row r="33" spans="1:7">
       <c r="A33" s="318"/>
       <c r="B33" s="26"/>
-      <c r="C33" s="261"/>
-      <c r="D33" s="263"/>
-      <c r="E33" s="262">
+      <c r="C33" s="259"/>
+      <c r="D33" s="261"/>
+      <c r="E33" s="260">
         <f t="shared" si="0"/>
         <v>28038</v>
       </c>
@@ -5399,9 +5405,9 @@
     <row r="34" spans="1:7">
       <c r="A34" s="318"/>
       <c r="B34" s="26"/>
-      <c r="C34" s="261"/>
-      <c r="D34" s="261"/>
-      <c r="E34" s="262">
+      <c r="C34" s="259"/>
+      <c r="D34" s="259"/>
+      <c r="E34" s="260">
         <f t="shared" si="0"/>
         <v>28038</v>
       </c>
@@ -5411,9 +5417,9 @@
     <row r="35" spans="1:7">
       <c r="A35" s="318"/>
       <c r="B35" s="26"/>
-      <c r="C35" s="261"/>
-      <c r="D35" s="261"/>
-      <c r="E35" s="262">
+      <c r="C35" s="259"/>
+      <c r="D35" s="259"/>
+      <c r="E35" s="260">
         <f t="shared" si="0"/>
         <v>28038</v>
       </c>
@@ -5423,9 +5429,9 @@
     <row r="36" spans="1:7">
       <c r="A36" s="318"/>
       <c r="B36" s="26"/>
-      <c r="C36" s="261"/>
-      <c r="D36" s="261"/>
-      <c r="E36" s="262">
+      <c r="C36" s="259"/>
+      <c r="D36" s="259"/>
+      <c r="E36" s="260">
         <f t="shared" si="0"/>
         <v>28038</v>
       </c>
@@ -5435,9 +5441,9 @@
     <row r="37" spans="1:7">
       <c r="A37" s="318"/>
       <c r="B37" s="26"/>
-      <c r="C37" s="261"/>
-      <c r="D37" s="261"/>
-      <c r="E37" s="262">
+      <c r="C37" s="259"/>
+      <c r="D37" s="259"/>
+      <c r="E37" s="260">
         <f t="shared" si="0"/>
         <v>28038</v>
       </c>
@@ -5447,9 +5453,9 @@
     <row r="38" spans="1:7">
       <c r="A38" s="318"/>
       <c r="B38" s="26"/>
-      <c r="C38" s="261"/>
-      <c r="D38" s="261"/>
-      <c r="E38" s="262">
+      <c r="C38" s="259"/>
+      <c r="D38" s="259"/>
+      <c r="E38" s="260">
         <f t="shared" si="0"/>
         <v>28038</v>
       </c>
@@ -5459,9 +5465,9 @@
     <row r="39" spans="1:7">
       <c r="A39" s="318"/>
       <c r="B39" s="26"/>
-      <c r="C39" s="261"/>
-      <c r="D39" s="261"/>
-      <c r="E39" s="262">
+      <c r="C39" s="259"/>
+      <c r="D39" s="259"/>
+      <c r="E39" s="260">
         <f t="shared" si="0"/>
         <v>28038</v>
       </c>
@@ -5471,9 +5477,9 @@
     <row r="40" spans="1:7">
       <c r="A40" s="318"/>
       <c r="B40" s="26"/>
-      <c r="C40" s="261"/>
-      <c r="D40" s="261"/>
-      <c r="E40" s="262">
+      <c r="C40" s="259"/>
+      <c r="D40" s="259"/>
+      <c r="E40" s="260">
         <f t="shared" si="0"/>
         <v>28038</v>
       </c>
@@ -5483,9 +5489,9 @@
     <row r="41" spans="1:7">
       <c r="A41" s="318"/>
       <c r="B41" s="26"/>
-      <c r="C41" s="261"/>
-      <c r="D41" s="261"/>
-      <c r="E41" s="262">
+      <c r="C41" s="259"/>
+      <c r="D41" s="259"/>
+      <c r="E41" s="260">
         <f t="shared" si="0"/>
         <v>28038</v>
       </c>
@@ -5495,9 +5501,9 @@
     <row r="42" spans="1:7">
       <c r="A42" s="318"/>
       <c r="B42" s="26"/>
-      <c r="C42" s="261"/>
-      <c r="D42" s="261"/>
-      <c r="E42" s="262">
+      <c r="C42" s="259"/>
+      <c r="D42" s="259"/>
+      <c r="E42" s="260">
         <f t="shared" si="0"/>
         <v>28038</v>
       </c>
@@ -5507,9 +5513,9 @@
     <row r="43" spans="1:7">
       <c r="A43" s="318"/>
       <c r="B43" s="26"/>
-      <c r="C43" s="261"/>
-      <c r="D43" s="261"/>
-      <c r="E43" s="262">
+      <c r="C43" s="259"/>
+      <c r="D43" s="259"/>
+      <c r="E43" s="260">
         <f t="shared" si="0"/>
         <v>28038</v>
       </c>
@@ -5519,9 +5525,9 @@
     <row r="44" spans="1:7">
       <c r="A44" s="318"/>
       <c r="B44" s="26"/>
-      <c r="C44" s="261"/>
-      <c r="D44" s="261"/>
-      <c r="E44" s="262">
+      <c r="C44" s="259"/>
+      <c r="D44" s="259"/>
+      <c r="E44" s="260">
         <f t="shared" si="0"/>
         <v>28038</v>
       </c>
@@ -5531,9 +5537,9 @@
     <row r="45" spans="1:7">
       <c r="A45" s="318"/>
       <c r="B45" s="26"/>
-      <c r="C45" s="261"/>
-      <c r="D45" s="261"/>
-      <c r="E45" s="262">
+      <c r="C45" s="259"/>
+      <c r="D45" s="259"/>
+      <c r="E45" s="260">
         <f t="shared" si="0"/>
         <v>28038</v>
       </c>
@@ -5543,9 +5549,9 @@
     <row r="46" spans="1:7">
       <c r="A46" s="318"/>
       <c r="B46" s="26"/>
-      <c r="C46" s="261"/>
-      <c r="D46" s="261"/>
-      <c r="E46" s="262">
+      <c r="C46" s="259"/>
+      <c r="D46" s="259"/>
+      <c r="E46" s="260">
         <f t="shared" si="0"/>
         <v>28038</v>
       </c>
@@ -5555,9 +5561,9 @@
     <row r="47" spans="1:7">
       <c r="A47" s="318"/>
       <c r="B47" s="26"/>
-      <c r="C47" s="261"/>
-      <c r="D47" s="261"/>
-      <c r="E47" s="262">
+      <c r="C47" s="259"/>
+      <c r="D47" s="259"/>
+      <c r="E47" s="260">
         <f t="shared" si="0"/>
         <v>28038</v>
       </c>
@@ -5567,9 +5573,9 @@
     <row r="48" spans="1:7">
       <c r="A48" s="318"/>
       <c r="B48" s="26"/>
-      <c r="C48" s="261"/>
-      <c r="D48" s="261"/>
-      <c r="E48" s="262">
+      <c r="C48" s="259"/>
+      <c r="D48" s="259"/>
+      <c r="E48" s="260">
         <f t="shared" si="0"/>
         <v>28038</v>
       </c>
@@ -5579,9 +5585,9 @@
     <row r="49" spans="1:7">
       <c r="A49" s="318"/>
       <c r="B49" s="26"/>
-      <c r="C49" s="261"/>
-      <c r="D49" s="261"/>
-      <c r="E49" s="262">
+      <c r="C49" s="259"/>
+      <c r="D49" s="259"/>
+      <c r="E49" s="260">
         <f t="shared" si="0"/>
         <v>28038</v>
       </c>
@@ -5591,9 +5597,9 @@
     <row r="50" spans="1:7">
       <c r="A50" s="318"/>
       <c r="B50" s="26"/>
-      <c r="C50" s="261"/>
-      <c r="D50" s="261"/>
-      <c r="E50" s="262">
+      <c r="C50" s="259"/>
+      <c r="D50" s="259"/>
+      <c r="E50" s="260">
         <f t="shared" si="0"/>
         <v>28038</v>
       </c>
@@ -5603,9 +5609,9 @@
     <row r="51" spans="1:7">
       <c r="A51" s="318"/>
       <c r="B51" s="26"/>
-      <c r="C51" s="261"/>
-      <c r="D51" s="261"/>
-      <c r="E51" s="262">
+      <c r="C51" s="259"/>
+      <c r="D51" s="259"/>
+      <c r="E51" s="260">
         <f t="shared" si="0"/>
         <v>28038</v>
       </c>
@@ -5615,9 +5621,9 @@
     <row r="52" spans="1:7">
       <c r="A52" s="318"/>
       <c r="B52" s="26"/>
-      <c r="C52" s="261"/>
-      <c r="D52" s="261"/>
-      <c r="E52" s="262">
+      <c r="C52" s="259"/>
+      <c r="D52" s="259"/>
+      <c r="E52" s="260">
         <f t="shared" si="0"/>
         <v>28038</v>
       </c>
@@ -5627,9 +5633,9 @@
     <row r="53" spans="1:7">
       <c r="A53" s="318"/>
       <c r="B53" s="26"/>
-      <c r="C53" s="261"/>
-      <c r="D53" s="261"/>
-      <c r="E53" s="262">
+      <c r="C53" s="259"/>
+      <c r="D53" s="259"/>
+      <c r="E53" s="260">
         <f t="shared" si="0"/>
         <v>28038</v>
       </c>
@@ -5639,9 +5645,9 @@
     <row r="54" spans="1:7">
       <c r="A54" s="318"/>
       <c r="B54" s="26"/>
-      <c r="C54" s="261"/>
-      <c r="D54" s="261"/>
-      <c r="E54" s="262">
+      <c r="C54" s="259"/>
+      <c r="D54" s="259"/>
+      <c r="E54" s="260">
         <f t="shared" si="0"/>
         <v>28038</v>
       </c>
@@ -5651,9 +5657,9 @@
     <row r="55" spans="1:7">
       <c r="A55" s="318"/>
       <c r="B55" s="26"/>
-      <c r="C55" s="261"/>
-      <c r="D55" s="261"/>
-      <c r="E55" s="262">
+      <c r="C55" s="259"/>
+      <c r="D55" s="259"/>
+      <c r="E55" s="260">
         <f t="shared" si="0"/>
         <v>28038</v>
       </c>
@@ -5663,9 +5669,9 @@
     <row r="56" spans="1:7">
       <c r="A56" s="318"/>
       <c r="B56" s="26"/>
-      <c r="C56" s="261"/>
-      <c r="D56" s="261"/>
-      <c r="E56" s="262">
+      <c r="C56" s="259"/>
+      <c r="D56" s="259"/>
+      <c r="E56" s="260">
         <f t="shared" si="0"/>
         <v>28038</v>
       </c>
@@ -5675,9 +5681,9 @@
     <row r="57" spans="1:7">
       <c r="A57" s="318"/>
       <c r="B57" s="26"/>
-      <c r="C57" s="261"/>
-      <c r="D57" s="261"/>
-      <c r="E57" s="262">
+      <c r="C57" s="259"/>
+      <c r="D57" s="259"/>
+      <c r="E57" s="260">
         <f t="shared" si="0"/>
         <v>28038</v>
       </c>
@@ -5687,9 +5693,9 @@
     <row r="58" spans="1:7">
       <c r="A58" s="318"/>
       <c r="B58" s="26"/>
-      <c r="C58" s="261"/>
-      <c r="D58" s="261"/>
-      <c r="E58" s="262">
+      <c r="C58" s="259"/>
+      <c r="D58" s="259"/>
+      <c r="E58" s="260">
         <f t="shared" si="0"/>
         <v>28038</v>
       </c>
@@ -5699,9 +5705,9 @@
     <row r="59" spans="1:7">
       <c r="A59" s="318"/>
       <c r="B59" s="26"/>
-      <c r="C59" s="261"/>
-      <c r="D59" s="261"/>
-      <c r="E59" s="262">
+      <c r="C59" s="259"/>
+      <c r="D59" s="259"/>
+      <c r="E59" s="260">
         <f t="shared" si="0"/>
         <v>28038</v>
       </c>
@@ -5710,9 +5716,9 @@
     <row r="60" spans="1:7">
       <c r="A60" s="318"/>
       <c r="B60" s="26"/>
-      <c r="C60" s="261"/>
-      <c r="D60" s="261"/>
-      <c r="E60" s="262">
+      <c r="C60" s="259"/>
+      <c r="D60" s="259"/>
+      <c r="E60" s="260">
         <f t="shared" si="0"/>
         <v>28038</v>
       </c>
@@ -5721,9 +5727,9 @@
     <row r="61" spans="1:7">
       <c r="A61" s="318"/>
       <c r="B61" s="26"/>
-      <c r="C61" s="261"/>
-      <c r="D61" s="261"/>
-      <c r="E61" s="262">
+      <c r="C61" s="259"/>
+      <c r="D61" s="259"/>
+      <c r="E61" s="260">
         <f t="shared" si="0"/>
         <v>28038</v>
       </c>
@@ -5732,9 +5738,9 @@
     <row r="62" spans="1:7">
       <c r="A62" s="318"/>
       <c r="B62" s="26"/>
-      <c r="C62" s="261"/>
-      <c r="D62" s="261"/>
-      <c r="E62" s="262">
+      <c r="C62" s="259"/>
+      <c r="D62" s="259"/>
+      <c r="E62" s="260">
         <f t="shared" si="0"/>
         <v>28038</v>
       </c>
@@ -5743,9 +5749,9 @@
     <row r="63" spans="1:7">
       <c r="A63" s="318"/>
       <c r="B63" s="26"/>
-      <c r="C63" s="261"/>
-      <c r="D63" s="261"/>
-      <c r="E63" s="262">
+      <c r="C63" s="259"/>
+      <c r="D63" s="259"/>
+      <c r="E63" s="260">
         <f t="shared" si="0"/>
         <v>28038</v>
       </c>
@@ -5754,9 +5760,9 @@
     <row r="64" spans="1:7">
       <c r="A64" s="318"/>
       <c r="B64" s="26"/>
-      <c r="C64" s="261"/>
-      <c r="D64" s="261"/>
-      <c r="E64" s="262">
+      <c r="C64" s="259"/>
+      <c r="D64" s="259"/>
+      <c r="E64" s="260">
         <f t="shared" si="0"/>
         <v>28038</v>
       </c>
@@ -5765,9 +5771,9 @@
     <row r="65" spans="1:7">
       <c r="A65" s="318"/>
       <c r="B65" s="26"/>
-      <c r="C65" s="261"/>
-      <c r="D65" s="261"/>
-      <c r="E65" s="262">
+      <c r="C65" s="259"/>
+      <c r="D65" s="259"/>
+      <c r="E65" s="260">
         <f t="shared" si="0"/>
         <v>28038</v>
       </c>
@@ -5776,9 +5782,9 @@
     <row r="66" spans="1:7">
       <c r="A66" s="318"/>
       <c r="B66" s="26"/>
-      <c r="C66" s="261"/>
-      <c r="D66" s="261"/>
-      <c r="E66" s="262">
+      <c r="C66" s="259"/>
+      <c r="D66" s="259"/>
+      <c r="E66" s="260">
         <f t="shared" si="0"/>
         <v>28038</v>
       </c>
@@ -5787,9 +5793,9 @@
     <row r="67" spans="1:7">
       <c r="A67" s="318"/>
       <c r="B67" s="26"/>
-      <c r="C67" s="261"/>
-      <c r="D67" s="261"/>
-      <c r="E67" s="262">
+      <c r="C67" s="259"/>
+      <c r="D67" s="259"/>
+      <c r="E67" s="260">
         <f t="shared" si="0"/>
         <v>28038</v>
       </c>
@@ -5798,9 +5804,9 @@
     <row r="68" spans="1:7">
       <c r="A68" s="318"/>
       <c r="B68" s="26"/>
-      <c r="C68" s="261"/>
-      <c r="D68" s="261"/>
-      <c r="E68" s="262">
+      <c r="C68" s="259"/>
+      <c r="D68" s="259"/>
+      <c r="E68" s="260">
         <f t="shared" si="0"/>
         <v>28038</v>
       </c>
@@ -5809,9 +5815,9 @@
     <row r="69" spans="1:7">
       <c r="A69" s="318"/>
       <c r="B69" s="26"/>
-      <c r="C69" s="261"/>
-      <c r="D69" s="261"/>
-      <c r="E69" s="262">
+      <c r="C69" s="259"/>
+      <c r="D69" s="259"/>
+      <c r="E69" s="260">
         <f t="shared" si="0"/>
         <v>28038</v>
       </c>
@@ -5820,9 +5826,9 @@
     <row r="70" spans="1:7">
       <c r="A70" s="318"/>
       <c r="B70" s="26"/>
-      <c r="C70" s="261"/>
-      <c r="D70" s="261"/>
-      <c r="E70" s="262">
+      <c r="C70" s="259"/>
+      <c r="D70" s="259"/>
+      <c r="E70" s="260">
         <f t="shared" ref="E70:E82" si="1">E69+C70-D70</f>
         <v>28038</v>
       </c>
@@ -5831,9 +5837,9 @@
     <row r="71" spans="1:7">
       <c r="A71" s="318"/>
       <c r="B71" s="26"/>
-      <c r="C71" s="261"/>
-      <c r="D71" s="261"/>
-      <c r="E71" s="262">
+      <c r="C71" s="259"/>
+      <c r="D71" s="259"/>
+      <c r="E71" s="260">
         <f t="shared" si="1"/>
         <v>28038</v>
       </c>
@@ -5842,9 +5848,9 @@
     <row r="72" spans="1:7">
       <c r="A72" s="318"/>
       <c r="B72" s="26"/>
-      <c r="C72" s="261"/>
-      <c r="D72" s="261"/>
-      <c r="E72" s="262">
+      <c r="C72" s="259"/>
+      <c r="D72" s="259"/>
+      <c r="E72" s="260">
         <f t="shared" si="1"/>
         <v>28038</v>
       </c>
@@ -5853,9 +5859,9 @@
     <row r="73" spans="1:7">
       <c r="A73" s="318"/>
       <c r="B73" s="26"/>
-      <c r="C73" s="261"/>
-      <c r="D73" s="261"/>
-      <c r="E73" s="262">
+      <c r="C73" s="259"/>
+      <c r="D73" s="259"/>
+      <c r="E73" s="260">
         <f t="shared" si="1"/>
         <v>28038</v>
       </c>
@@ -5864,9 +5870,9 @@
     <row r="74" spans="1:7">
       <c r="A74" s="318"/>
       <c r="B74" s="26"/>
-      <c r="C74" s="261"/>
-      <c r="D74" s="261"/>
-      <c r="E74" s="262">
+      <c r="C74" s="259"/>
+      <c r="D74" s="259"/>
+      <c r="E74" s="260">
         <f t="shared" si="1"/>
         <v>28038</v>
       </c>
@@ -5875,9 +5881,9 @@
     <row r="75" spans="1:7">
       <c r="A75" s="318"/>
       <c r="B75" s="26"/>
-      <c r="C75" s="261"/>
-      <c r="D75" s="261"/>
-      <c r="E75" s="262">
+      <c r="C75" s="259"/>
+      <c r="D75" s="259"/>
+      <c r="E75" s="260">
         <f t="shared" si="1"/>
         <v>28038</v>
       </c>
@@ -5886,9 +5892,9 @@
     <row r="76" spans="1:7">
       <c r="A76" s="318"/>
       <c r="B76" s="26"/>
-      <c r="C76" s="261"/>
-      <c r="D76" s="261"/>
-      <c r="E76" s="262">
+      <c r="C76" s="259"/>
+      <c r="D76" s="259"/>
+      <c r="E76" s="260">
         <f t="shared" si="1"/>
         <v>28038</v>
       </c>
@@ -5897,9 +5903,9 @@
     <row r="77" spans="1:7">
       <c r="A77" s="318"/>
       <c r="B77" s="26"/>
-      <c r="C77" s="261"/>
-      <c r="D77" s="261"/>
-      <c r="E77" s="262">
+      <c r="C77" s="259"/>
+      <c r="D77" s="259"/>
+      <c r="E77" s="260">
         <f t="shared" si="1"/>
         <v>28038</v>
       </c>
@@ -5908,9 +5914,9 @@
     <row r="78" spans="1:7">
       <c r="A78" s="318"/>
       <c r="B78" s="26"/>
-      <c r="C78" s="261"/>
-      <c r="D78" s="261"/>
-      <c r="E78" s="262">
+      <c r="C78" s="259"/>
+      <c r="D78" s="259"/>
+      <c r="E78" s="260">
         <f t="shared" si="1"/>
         <v>28038</v>
       </c>
@@ -5919,9 +5925,9 @@
     <row r="79" spans="1:7">
       <c r="A79" s="318"/>
       <c r="B79" s="26"/>
-      <c r="C79" s="261"/>
-      <c r="D79" s="261"/>
-      <c r="E79" s="262">
+      <c r="C79" s="259"/>
+      <c r="D79" s="259"/>
+      <c r="E79" s="260">
         <f t="shared" si="1"/>
         <v>28038</v>
       </c>
@@ -5931,9 +5937,9 @@
     <row r="80" spans="1:7">
       <c r="A80" s="318"/>
       <c r="B80" s="26"/>
-      <c r="C80" s="261"/>
-      <c r="D80" s="261"/>
-      <c r="E80" s="262">
+      <c r="C80" s="259"/>
+      <c r="D80" s="259"/>
+      <c r="E80" s="260">
         <f t="shared" si="1"/>
         <v>28038</v>
       </c>
@@ -5943,9 +5949,9 @@
     <row r="81" spans="1:7">
       <c r="A81" s="318"/>
       <c r="B81" s="26"/>
-      <c r="C81" s="261"/>
-      <c r="D81" s="261"/>
-      <c r="E81" s="262">
+      <c r="C81" s="259"/>
+      <c r="D81" s="259"/>
+      <c r="E81" s="260">
         <f t="shared" si="1"/>
         <v>28038</v>
       </c>
@@ -5955,9 +5961,9 @@
     <row r="82" spans="1:7">
       <c r="A82" s="318"/>
       <c r="B82" s="26"/>
-      <c r="C82" s="261"/>
-      <c r="D82" s="261"/>
-      <c r="E82" s="262">
+      <c r="C82" s="259"/>
+      <c r="D82" s="259"/>
+      <c r="E82" s="260">
         <f t="shared" si="1"/>
         <v>28038</v>
       </c>
@@ -5966,16 +5972,16 @@
     </row>
     <row r="83" spans="1:7">
       <c r="A83" s="318"/>
-      <c r="B83" s="290"/>
-      <c r="C83" s="262">
+      <c r="B83" s="288"/>
+      <c r="C83" s="260">
         <f>SUM(C5:C72)</f>
         <v>28038</v>
       </c>
-      <c r="D83" s="262">
+      <c r="D83" s="260">
         <f>SUM(D5:D77)</f>
         <v>0</v>
       </c>
-      <c r="E83" s="262">
+      <c r="E83" s="260">
         <f>E71</f>
         <v>28038</v>
       </c>
@@ -6596,7 +6602,7 @@
       <c r="G19" s="88"/>
       <c r="H19" s="88"/>
       <c r="I19" s="88"/>
-      <c r="J19" s="304"/>
+      <c r="J19" s="302"/>
       <c r="K19" s="88"/>
       <c r="L19" s="88"/>
       <c r="M19" s="88"/>
@@ -7098,7 +7104,7 @@
         <f>SUM(Q6:Q36)</f>
         <v>4630</v>
       </c>
-      <c r="S37" s="238" t="s">
+      <c r="S37" s="236" t="s">
         <v>47</v>
       </c>
     </row>
@@ -7161,8 +7167,8 @@
       <c r="D43" s="114"/>
       <c r="E43" s="114"/>
     </row>
-    <row r="44" spans="1:19" s="271" customFormat="1">
-      <c r="A44" s="271" t="s">
+    <row r="44" spans="1:19" s="269" customFormat="1">
+      <c r="A44" s="269" t="s">
         <v>117</v>
       </c>
     </row>
@@ -9100,6 +9106,7 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="I4:I5"/>
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="K4:K5"/>
     <mergeCell ref="L4:L5"/>
@@ -9118,7 +9125,6 @@
     <mergeCell ref="P4:P5"/>
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.39370078740157483" bottom="0" header="0" footer="0"/>
@@ -9131,8 +9137,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CS1357"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D54" sqref="D54"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -9462,25 +9468,25 @@
       <c r="CS3" s="144"/>
     </row>
     <row r="4" spans="1:97" ht="13.5" thickBot="1">
-      <c r="A4" s="264" t="s">
+      <c r="A4" s="262" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="212" t="s">
+      <c r="B4" s="211" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="211" t="s">
+      <c r="C4" s="210" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="212" t="s">
+      <c r="D4" s="211" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="212" t="s">
+      <c r="E4" s="211" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="212" t="s">
+      <c r="F4" s="211" t="s">
         <v>1</v>
       </c>
-      <c r="G4" s="212" t="s">
+      <c r="G4" s="211" t="s">
         <v>116</v>
       </c>
       <c r="H4" s="65"/>
@@ -9591,8 +9597,8 @@
         <f>C5+D5</f>
         <v>353360</v>
       </c>
-      <c r="F5" s="239"/>
-      <c r="G5" s="251"/>
+      <c r="F5" s="237"/>
+      <c r="G5" s="249"/>
       <c r="H5" s="149"/>
       <c r="I5" s="154"/>
       <c r="J5" s="149"/>
@@ -9692,17 +9698,17 @@
         <v>226910</v>
       </c>
       <c r="C6" s="56">
-        <v>240290</v>
+        <v>247490</v>
       </c>
       <c r="D6" s="53">
         <v>3550</v>
       </c>
       <c r="E6" s="53">
         <f t="shared" ref="E6:E32" si="0">C6+D6</f>
-        <v>243840</v>
-      </c>
-      <c r="F6" s="240"/>
-      <c r="G6" s="252"/>
+        <v>251040</v>
+      </c>
+      <c r="F6" s="238"/>
+      <c r="G6" s="250"/>
       <c r="H6" s="157"/>
       <c r="I6" s="154"/>
       <c r="J6" s="149"/>
@@ -9803,8 +9809,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F7" s="240"/>
-      <c r="G7" s="252"/>
+      <c r="F7" s="238"/>
+      <c r="G7" s="250"/>
       <c r="H7" s="157"/>
       <c r="I7" s="154"/>
       <c r="J7" s="149"/>
@@ -9905,8 +9911,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F8" s="241"/>
-      <c r="G8" s="251"/>
+      <c r="F8" s="239"/>
+      <c r="G8" s="249"/>
       <c r="H8" s="149"/>
       <c r="I8" s="154"/>
       <c r="J8" s="154"/>
@@ -10007,8 +10013,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F9" s="242"/>
-      <c r="G9" s="251"/>
+      <c r="F9" s="240"/>
+      <c r="G9" s="249"/>
       <c r="H9" s="149"/>
       <c r="I9" s="154"/>
       <c r="J9" s="154"/>
@@ -10109,8 +10115,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F10" s="243"/>
-      <c r="G10" s="251"/>
+      <c r="F10" s="241"/>
+      <c r="G10" s="249"/>
       <c r="H10" s="149"/>
       <c r="I10" s="154"/>
       <c r="J10" s="154"/>
@@ -10211,8 +10217,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F11" s="241"/>
-      <c r="G11" s="251"/>
+      <c r="F11" s="239"/>
+      <c r="G11" s="249"/>
       <c r="H11" s="154"/>
       <c r="I11" s="154"/>
       <c r="J11" s="154"/>
@@ -10313,8 +10319,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F12" s="241"/>
-      <c r="G12" s="251"/>
+      <c r="F12" s="239"/>
+      <c r="G12" s="249"/>
       <c r="H12" s="154"/>
       <c r="I12" s="154"/>
       <c r="J12" s="154"/>
@@ -10415,8 +10421,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F13" s="243"/>
-      <c r="G13" s="251"/>
+      <c r="F13" s="241"/>
+      <c r="G13" s="249"/>
       <c r="H13" s="149"/>
       <c r="I13" s="154"/>
       <c r="J13" s="154"/>
@@ -10517,8 +10523,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F14" s="242"/>
-      <c r="G14" s="251"/>
+      <c r="F14" s="240"/>
+      <c r="G14" s="249"/>
       <c r="H14" s="149"/>
       <c r="I14" s="154"/>
       <c r="J14" s="154"/>
@@ -10619,8 +10625,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F15" s="241"/>
-      <c r="G15" s="251"/>
+      <c r="F15" s="239"/>
+      <c r="G15" s="249"/>
       <c r="H15" s="154"/>
       <c r="I15" s="154"/>
       <c r="J15" s="154"/>
@@ -10721,8 +10727,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F16" s="241"/>
-      <c r="G16" s="251"/>
+      <c r="F16" s="239"/>
+      <c r="G16" s="249"/>
       <c r="H16" s="154"/>
       <c r="I16" s="154"/>
       <c r="J16" s="154"/>
@@ -10823,8 +10829,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F17" s="240"/>
-      <c r="G17" s="252"/>
+      <c r="F17" s="238"/>
+      <c r="G17" s="250"/>
       <c r="H17" s="157"/>
       <c r="I17" s="154"/>
       <c r="J17" s="154"/>
@@ -10925,8 +10931,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F18" s="243"/>
-      <c r="G18" s="251"/>
+      <c r="F18" s="241"/>
+      <c r="G18" s="249"/>
       <c r="H18" s="149"/>
       <c r="I18" s="154"/>
       <c r="J18" s="154"/>
@@ -11027,8 +11033,8 @@
         <f>C19+D19</f>
         <v>0</v>
       </c>
-      <c r="F19" s="242"/>
-      <c r="G19" s="251"/>
+      <c r="F19" s="240"/>
+      <c r="G19" s="249"/>
       <c r="H19" s="149"/>
       <c r="I19" s="154"/>
       <c r="J19" s="154"/>
@@ -11129,8 +11135,8 @@
         <f t="shared" ref="E20:E23" si="1">C20+D20</f>
         <v>0</v>
       </c>
-      <c r="F20" s="240"/>
-      <c r="G20" s="251"/>
+      <c r="F20" s="238"/>
+      <c r="G20" s="249"/>
       <c r="H20" s="149"/>
       <c r="I20" s="154"/>
       <c r="J20" s="154"/>
@@ -11231,8 +11237,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F21" s="240"/>
-      <c r="G21" s="251"/>
+      <c r="F21" s="238"/>
+      <c r="G21" s="249"/>
       <c r="H21" s="149"/>
       <c r="I21" s="154"/>
       <c r="J21" s="154"/>
@@ -11333,8 +11339,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F22" s="240"/>
-      <c r="G22" s="251"/>
+      <c r="F22" s="238"/>
+      <c r="G22" s="249"/>
       <c r="H22" s="149"/>
       <c r="I22" s="154"/>
       <c r="J22" s="154"/>
@@ -11435,8 +11441,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F23" s="240"/>
-      <c r="G23" s="252"/>
+      <c r="F23" s="238"/>
+      <c r="G23" s="250"/>
       <c r="H23" s="157"/>
       <c r="I23" s="154"/>
       <c r="J23" s="154"/>
@@ -11537,8 +11543,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F24" s="240"/>
-      <c r="G24" s="252"/>
+      <c r="F24" s="238"/>
+      <c r="G24" s="250"/>
       <c r="H24" s="157"/>
       <c r="I24" s="154"/>
       <c r="J24" s="154"/>
@@ -11639,8 +11645,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F25" s="242"/>
-      <c r="G25" s="251"/>
+      <c r="F25" s="240"/>
+      <c r="G25" s="249"/>
       <c r="H25" s="149"/>
       <c r="I25" s="154"/>
       <c r="J25" s="154"/>
@@ -11741,8 +11747,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F26" s="244"/>
-      <c r="G26" s="251"/>
+      <c r="F26" s="242"/>
+      <c r="G26" s="249"/>
       <c r="H26" s="149"/>
       <c r="I26" s="154"/>
       <c r="J26" s="154"/>
@@ -11843,8 +11849,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F27" s="242"/>
-      <c r="G27" s="251"/>
+      <c r="F27" s="240"/>
+      <c r="G27" s="249"/>
       <c r="H27" s="149"/>
       <c r="I27" s="154"/>
       <c r="J27" s="154"/>
@@ -11945,8 +11951,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F28" s="242"/>
-      <c r="G28" s="251"/>
+      <c r="F28" s="240"/>
+      <c r="G28" s="249"/>
       <c r="H28" s="149"/>
       <c r="I28" s="154"/>
       <c r="J28" s="154"/>
@@ -12047,8 +12053,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F29" s="242"/>
-      <c r="G29" s="251"/>
+      <c r="F29" s="240"/>
+      <c r="G29" s="249"/>
       <c r="H29" s="149"/>
       <c r="I29" s="154"/>
       <c r="J29" s="154"/>
@@ -12149,8 +12155,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F30" s="241"/>
-      <c r="G30" s="253"/>
+      <c r="F30" s="239"/>
+      <c r="G30" s="251"/>
       <c r="H30" s="147"/>
       <c r="I30" s="166"/>
       <c r="J30" s="147"/>
@@ -12251,8 +12257,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F31" s="241"/>
-      <c r="G31" s="253"/>
+      <c r="F31" s="239"/>
+      <c r="G31" s="251"/>
       <c r="H31" s="147"/>
       <c r="I31" s="166"/>
       <c r="J31" s="167"/>
@@ -12347,14 +12353,14 @@
     <row r="32" spans="1:97" ht="13.5" thickBot="1">
       <c r="A32" s="193"/>
       <c r="B32" s="136"/>
-      <c r="C32" s="250"/>
+      <c r="C32" s="248"/>
       <c r="D32" s="136"/>
       <c r="E32" s="136">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F32" s="245"/>
-      <c r="G32" s="253"/>
+      <c r="F32" s="243"/>
+      <c r="G32" s="251"/>
       <c r="H32" s="158"/>
       <c r="I32" s="146"/>
       <c r="J32" s="167"/>
@@ -12447,30 +12453,30 @@
       <c r="CS32" s="144"/>
     </row>
     <row r="33" spans="1:97" ht="13.5" thickBot="1">
-      <c r="A33" s="211" t="s">
+      <c r="A33" s="210" t="s">
         <v>4</v>
       </c>
-      <c r="B33" s="265">
+      <c r="B33" s="263">
         <f>SUM(B5:B32)</f>
         <v>345970</v>
       </c>
-      <c r="C33" s="266">
+      <c r="C33" s="264">
         <f>SUM(C5:C32)</f>
-        <v>592490</v>
-      </c>
-      <c r="D33" s="265">
+        <v>599690</v>
+      </c>
+      <c r="D33" s="263">
         <f>SUM(D5:D32)</f>
         <v>4710</v>
       </c>
-      <c r="E33" s="265">
+      <c r="E33" s="263">
         <f>SUM(E5:E32)</f>
-        <v>597200</v>
-      </c>
-      <c r="F33" s="265">
+        <v>604400</v>
+      </c>
+      <c r="F33" s="263">
         <f>B33-E33</f>
-        <v>-251230</v>
-      </c>
-      <c r="G33" s="267"/>
+        <v>-258430</v>
+      </c>
+      <c r="G33" s="265"/>
       <c r="H33" s="145"/>
       <c r="I33" s="146"/>
       <c r="J33" s="147"/>
@@ -12763,19 +12769,19 @@
       <c r="CS35" s="144"/>
     </row>
     <row r="36" spans="1:97" ht="13.5" thickBot="1">
-      <c r="A36" s="211" t="s">
+      <c r="A36" s="210" t="s">
         <v>92</v>
       </c>
-      <c r="B36" s="211" t="s">
+      <c r="B36" s="210" t="s">
         <v>25</v>
       </c>
-      <c r="C36" s="211" t="s">
+      <c r="C36" s="210" t="s">
         <v>26</v>
       </c>
-      <c r="D36" s="212" t="s">
+      <c r="D36" s="211" t="s">
         <v>27</v>
       </c>
-      <c r="E36" s="212" t="s">
+      <c r="E36" s="211" t="s">
         <v>0</v>
       </c>
       <c r="F36" s="190">
@@ -12878,17 +12884,17 @@
       <c r="A37" s="191" t="s">
         <v>97</v>
       </c>
-      <c r="B37" s="288" t="s">
-        <v>148</v>
+      <c r="B37" s="286" t="s">
+        <v>196</v>
       </c>
       <c r="C37" s="134" t="s">
         <v>121</v>
       </c>
-      <c r="D37" s="214">
-        <v>6500</v>
-      </c>
-      <c r="E37" s="279" t="s">
-        <v>179</v>
+      <c r="D37" s="213">
+        <v>8240</v>
+      </c>
+      <c r="E37" s="277" t="s">
+        <v>224</v>
       </c>
       <c r="F37" s="140"/>
       <c r="G37" s="145"/>
@@ -12988,16 +12994,16 @@
         <v>97</v>
       </c>
       <c r="B38" s="62" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="C38" s="123" t="s">
-        <v>197</v>
-      </c>
-      <c r="D38" s="215">
-        <v>7740</v>
-      </c>
-      <c r="E38" s="183" t="s">
-        <v>206</v>
+        <v>121</v>
+      </c>
+      <c r="D38" s="214">
+        <v>1900</v>
+      </c>
+      <c r="E38" s="182" t="s">
+        <v>218</v>
       </c>
       <c r="F38" s="138"/>
       <c r="G38" s="145"/>
@@ -13096,17 +13102,17 @@
       <c r="A39" s="191" t="s">
         <v>97</v>
       </c>
-      <c r="B39" s="62" t="s">
-        <v>188</v>
+      <c r="B39" s="124" t="s">
+        <v>118</v>
       </c>
       <c r="C39" s="123" t="s">
-        <v>121</v>
-      </c>
-      <c r="D39" s="215">
-        <v>1900</v>
+        <v>109</v>
+      </c>
+      <c r="D39" s="214">
+        <v>8140</v>
       </c>
       <c r="E39" s="182" t="s">
-        <v>218</v>
+        <v>154</v>
       </c>
       <c r="F39" s="138"/>
       <c r="G39" s="145"/>
@@ -13206,16 +13212,16 @@
         <v>97</v>
       </c>
       <c r="B40" s="124" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="C40" s="123" t="s">
-        <v>109</v>
-      </c>
-      <c r="D40" s="215">
-        <v>8140</v>
+        <v>121</v>
+      </c>
+      <c r="D40" s="214">
+        <v>2000</v>
       </c>
       <c r="E40" s="182" t="s">
-        <v>154</v>
+        <v>225</v>
       </c>
       <c r="F40" s="138"/>
       <c r="G40" s="151"/>
@@ -13314,16 +13320,10 @@
       <c r="A41" s="191" t="s">
         <v>97</v>
       </c>
-      <c r="B41" s="62" t="s">
-        <v>203</v>
-      </c>
+      <c r="B41" s="62"/>
       <c r="C41" s="123"/>
-      <c r="D41" s="215">
-        <v>200</v>
-      </c>
-      <c r="E41" s="183" t="s">
-        <v>202</v>
-      </c>
+      <c r="D41" s="214"/>
+      <c r="E41" s="183"/>
       <c r="F41" s="143"/>
       <c r="G41" s="152"/>
       <c r="H41" s="152"/>
@@ -13421,18 +13421,10 @@
       <c r="A42" s="191" t="s">
         <v>97</v>
       </c>
-      <c r="B42" s="124" t="s">
-        <v>143</v>
-      </c>
-      <c r="C42" s="123" t="s">
-        <v>121</v>
-      </c>
-      <c r="D42" s="215">
-        <v>3000</v>
-      </c>
-      <c r="E42" s="182" t="s">
-        <v>218</v>
-      </c>
+      <c r="B42" s="62"/>
+      <c r="C42" s="123"/>
+      <c r="D42" s="214"/>
+      <c r="E42" s="183"/>
       <c r="F42" s="144"/>
       <c r="G42" s="153"/>
       <c r="H42" s="153"/>
@@ -13532,7 +13524,7 @@
       </c>
       <c r="B43" s="124"/>
       <c r="C43" s="123"/>
-      <c r="D43" s="215"/>
+      <c r="D43" s="214"/>
       <c r="E43" s="182"/>
       <c r="F43" s="140"/>
       <c r="G43" s="337"/>
@@ -13633,7 +13625,7 @@
       </c>
       <c r="B44" s="124"/>
       <c r="C44" s="123"/>
-      <c r="D44" s="215"/>
+      <c r="D44" s="214"/>
       <c r="E44" s="182"/>
       <c r="F44" s="141"/>
       <c r="G44" s="179"/>
@@ -13738,30 +13730,30 @@
       <c r="C45" s="209" t="s">
         <v>89</v>
       </c>
-      <c r="D45" s="216" t="s">
+      <c r="D45" s="367" t="s">
         <v>66</v>
       </c>
-      <c r="E45" s="210" t="s">
+      <c r="E45" s="368" t="s">
         <v>90</v>
       </c>
       <c r="F45" s="138"/>
       <c r="G45" s="144"/>
-      <c r="H45" s="230" t="s">
+      <c r="H45" s="228" t="s">
         <v>100</v>
       </c>
-      <c r="I45" s="226" t="s">
+      <c r="I45" s="224" t="s">
         <v>101</v>
       </c>
-      <c r="J45" s="226" t="s">
+      <c r="J45" s="224" t="s">
         <v>66</v>
       </c>
-      <c r="K45" s="231" t="s">
+      <c r="K45" s="229" t="s">
         <v>102</v>
       </c>
-      <c r="L45" s="232" t="s">
+      <c r="L45" s="230" t="s">
         <v>28</v>
       </c>
-      <c r="M45" s="233" t="s">
+      <c r="M45" s="231" t="s">
         <v>29</v>
       </c>
       <c r="N45" s="65"/>
@@ -13850,19 +13842,19 @@
       <c r="CS45" s="144"/>
     </row>
     <row r="46" spans="1:97">
-      <c r="A46" s="234" t="s">
+      <c r="A46" s="232" t="s">
         <v>103</v>
       </c>
-      <c r="B46" s="274" t="s">
+      <c r="B46" s="272" t="s">
         <v>104</v>
       </c>
       <c r="C46" s="134">
         <v>1718911905</v>
       </c>
-      <c r="D46" s="217">
+      <c r="D46" s="215">
         <v>567410</v>
       </c>
-      <c r="E46" s="275" t="s">
+      <c r="E46" s="273" t="s">
         <v>221</v>
       </c>
       <c r="F46" s="137"/>
@@ -13972,7 +13964,7 @@
       <c r="CS46" s="144"/>
     </row>
     <row r="47" spans="1:97">
-      <c r="A47" s="234" t="s">
+      <c r="A47" s="232" t="s">
         <v>103</v>
       </c>
       <c r="B47" s="58" t="s">
@@ -13981,7 +13973,7 @@
       <c r="C47" s="123">
         <v>1765002244</v>
       </c>
-      <c r="D47" s="218">
+      <c r="D47" s="216">
         <v>250000</v>
       </c>
       <c r="E47" s="184" t="s">
@@ -14094,7 +14086,7 @@
       <c r="CS47" s="144"/>
     </row>
     <row r="48" spans="1:97">
-      <c r="A48" s="234" t="s">
+      <c r="A48" s="232" t="s">
         <v>103</v>
       </c>
       <c r="B48" s="57" t="s">
@@ -14103,7 +14095,7 @@
       <c r="C48" s="123">
         <v>1716697790</v>
       </c>
-      <c r="D48" s="218">
+      <c r="D48" s="216">
         <v>360900</v>
       </c>
       <c r="E48" s="186" t="s">
@@ -14216,7 +14208,7 @@
       <c r="CS48" s="144"/>
     </row>
     <row r="49" spans="1:97">
-      <c r="A49" s="234" t="s">
+      <c r="A49" s="232" t="s">
         <v>103</v>
       </c>
       <c r="B49" s="125" t="s">
@@ -14225,7 +14217,7 @@
       <c r="C49" s="123">
         <v>1743942020</v>
       </c>
-      <c r="D49" s="218">
+      <c r="D49" s="216">
         <v>509750</v>
       </c>
       <c r="E49" s="184" t="s">
@@ -14338,7 +14330,7 @@
       <c r="CS49" s="144"/>
     </row>
     <row r="50" spans="1:97">
-      <c r="A50" s="234" t="s">
+      <c r="A50" s="232" t="s">
         <v>103</v>
       </c>
       <c r="B50" s="125" t="s">
@@ -14347,7 +14339,7 @@
       <c r="C50" s="123">
         <v>1733624262</v>
       </c>
-      <c r="D50" s="218">
+      <c r="D50" s="216">
         <v>153780</v>
       </c>
       <c r="E50" s="184" t="s">
@@ -14460,7 +14452,7 @@
       <c r="CS50" s="144"/>
     </row>
     <row r="51" spans="1:97">
-      <c r="A51" s="234" t="s">
+      <c r="A51" s="232" t="s">
         <v>103</v>
       </c>
       <c r="B51" s="57" t="s">
@@ -14469,7 +14461,7 @@
       <c r="C51" s="123">
         <v>1723246584</v>
       </c>
-      <c r="D51" s="218">
+      <c r="D51" s="216">
         <v>66190</v>
       </c>
       <c r="E51" s="186" t="s">
@@ -14582,7 +14574,7 @@
       <c r="CS51" s="144"/>
     </row>
     <row r="52" spans="1:97">
-      <c r="A52" s="234" t="s">
+      <c r="A52" s="232" t="s">
         <v>103</v>
       </c>
       <c r="B52" s="58" t="s">
@@ -14591,7 +14583,7 @@
       <c r="C52" s="123">
         <v>1739791780</v>
       </c>
-      <c r="D52" s="218">
+      <c r="D52" s="216">
         <v>37450</v>
       </c>
       <c r="E52" s="185" t="s">
@@ -14704,7 +14696,7 @@
       <c r="CS52" s="144"/>
     </row>
     <row r="53" spans="1:97">
-      <c r="A53" s="234" t="s">
+      <c r="A53" s="232" t="s">
         <v>103</v>
       </c>
       <c r="B53" s="57" t="s">
@@ -14713,7 +14705,7 @@
       <c r="C53" s="123">
         <v>1725821212</v>
       </c>
-      <c r="D53" s="218">
+      <c r="D53" s="216">
         <v>65900</v>
       </c>
       <c r="E53" s="186" t="s">
@@ -14826,7 +14818,7 @@
       <c r="CS53" s="144"/>
     </row>
     <row r="54" spans="1:97">
-      <c r="A54" s="234" t="s">
+      <c r="A54" s="232" t="s">
         <v>103</v>
       </c>
       <c r="B54" s="57" t="s">
@@ -14835,7 +14827,7 @@
       <c r="C54" s="123">
         <v>1749334499</v>
       </c>
-      <c r="D54" s="218">
+      <c r="D54" s="216">
         <v>78560</v>
       </c>
       <c r="E54" s="184" t="s">
@@ -14948,10 +14940,10 @@
       <c r="CS54" s="144"/>
     </row>
     <row r="55" spans="1:97">
-      <c r="A55" s="234"/>
+      <c r="A55" s="232"/>
       <c r="B55" s="58"/>
       <c r="C55" s="123"/>
-      <c r="D55" s="218"/>
+      <c r="D55" s="216"/>
       <c r="E55" s="185"/>
       <c r="F55" s="138"/>
       <c r="G55" s="144" t="s">
@@ -15052,10 +15044,10 @@
       <c r="CS55" s="144"/>
     </row>
     <row r="56" spans="1:97">
-      <c r="A56" s="235"/>
+      <c r="A56" s="233"/>
       <c r="B56" s="59"/>
       <c r="C56" s="123"/>
-      <c r="D56" s="219"/>
+      <c r="D56" s="217"/>
       <c r="E56" s="186"/>
       <c r="F56" s="138"/>
       <c r="G56" s="144"/>
@@ -15154,10 +15146,10 @@
       <c r="CS56" s="144"/>
     </row>
     <row r="57" spans="1:97">
-      <c r="A57" s="235"/>
+      <c r="A57" s="233"/>
       <c r="B57" s="57"/>
       <c r="C57" s="123"/>
-      <c r="D57" s="218"/>
+      <c r="D57" s="216"/>
       <c r="E57" s="184"/>
       <c r="F57" s="138"/>
       <c r="G57" s="144"/>
@@ -15256,7 +15248,7 @@
       <c r="CS57" s="144"/>
     </row>
     <row r="58" spans="1:97">
-      <c r="A58" s="235" t="s">
+      <c r="A58" s="233" t="s">
         <v>96</v>
       </c>
       <c r="B58" s="58" t="s">
@@ -15265,7 +15257,7 @@
       <c r="C58" s="123" t="s">
         <v>68</v>
       </c>
-      <c r="D58" s="218">
+      <c r="D58" s="216">
         <v>74000</v>
       </c>
       <c r="E58" s="185" t="s">
@@ -15378,7 +15370,7 @@
       <c r="CS58" s="144"/>
     </row>
     <row r="59" spans="1:97">
-      <c r="A59" s="235" t="s">
+      <c r="A59" s="233" t="s">
         <v>96</v>
       </c>
       <c r="B59" s="57" t="s">
@@ -15387,7 +15379,7 @@
       <c r="C59" s="123" t="s">
         <v>67</v>
       </c>
-      <c r="D59" s="218">
+      <c r="D59" s="216">
         <v>10915</v>
       </c>
       <c r="E59" s="184" t="s">
@@ -15500,7 +15492,7 @@
       <c r="CS59" s="144"/>
     </row>
     <row r="60" spans="1:97">
-      <c r="A60" s="235" t="s">
+      <c r="A60" s="233" t="s">
         <v>95</v>
       </c>
       <c r="B60" s="58" t="s">
@@ -15509,7 +15501,7 @@
       <c r="C60" s="123" t="s">
         <v>69</v>
       </c>
-      <c r="D60" s="218">
+      <c r="D60" s="216">
         <v>20000</v>
       </c>
       <c r="E60" s="184" t="s">
@@ -15622,7 +15614,7 @@
       <c r="CS60" s="144"/>
     </row>
     <row r="61" spans="1:97">
-      <c r="A61" s="235" t="s">
+      <c r="A61" s="233" t="s">
         <v>95</v>
       </c>
       <c r="B61" s="58" t="s">
@@ -15631,7 +15623,7 @@
       <c r="C61" s="123" t="s">
         <v>72</v>
       </c>
-      <c r="D61" s="218">
+      <c r="D61" s="216">
         <v>11000</v>
       </c>
       <c r="E61" s="185" t="s">
@@ -15744,7 +15736,7 @@
       <c r="CS61" s="144"/>
     </row>
     <row r="62" spans="1:97">
-      <c r="A62" s="235" t="s">
+      <c r="A62" s="233" t="s">
         <v>95</v>
       </c>
       <c r="B62" s="58" t="s">
@@ -15753,7 +15745,7 @@
       <c r="C62" s="123" t="s">
         <v>70</v>
       </c>
-      <c r="D62" s="218">
+      <c r="D62" s="216">
         <v>17400</v>
       </c>
       <c r="E62" s="185" t="s">
@@ -15866,7 +15858,7 @@
       <c r="CS62" s="144"/>
     </row>
     <row r="63" spans="1:97">
-      <c r="A63" s="235" t="s">
+      <c r="A63" s="233" t="s">
         <v>95</v>
       </c>
       <c r="B63" s="58" t="s">
@@ -15875,7 +15867,7 @@
       <c r="C63" s="123" t="s">
         <v>71</v>
       </c>
-      <c r="D63" s="218">
+      <c r="D63" s="216">
         <v>19370</v>
       </c>
       <c r="E63" s="186" t="s">
@@ -15988,7 +15980,7 @@
       <c r="CS63" s="144"/>
     </row>
     <row r="64" spans="1:97">
-      <c r="A64" s="235" t="s">
+      <c r="A64" s="233" t="s">
         <v>95</v>
       </c>
       <c r="B64" s="58" t="s">
@@ -15997,7 +15989,7 @@
       <c r="C64" s="123">
         <v>1711270696</v>
       </c>
-      <c r="D64" s="218">
+      <c r="D64" s="216">
         <v>22000</v>
       </c>
       <c r="E64" s="186" t="s">
@@ -16110,7 +16102,7 @@
       <c r="CS64" s="144"/>
     </row>
     <row r="65" spans="1:97">
-      <c r="A65" s="235" t="s">
+      <c r="A65" s="233" t="s">
         <v>95</v>
       </c>
       <c r="B65" s="58" t="s">
@@ -16119,7 +16111,7 @@
       <c r="C65" s="123">
         <v>1774412324</v>
       </c>
-      <c r="D65" s="218">
+      <c r="D65" s="216">
         <v>26320</v>
       </c>
       <c r="E65" s="185" t="s">
@@ -16232,7 +16224,7 @@
       <c r="CS65" s="144"/>
     </row>
     <row r="66" spans="1:97">
-      <c r="A66" s="235" t="s">
+      <c r="A66" s="233" t="s">
         <v>91</v>
       </c>
       <c r="B66" s="58" t="s">
@@ -16241,7 +16233,7 @@
       <c r="C66" s="123" t="s">
         <v>73</v>
       </c>
-      <c r="D66" s="218">
+      <c r="D66" s="216">
         <v>13500</v>
       </c>
       <c r="E66" s="184" t="s">
@@ -16354,7 +16346,7 @@
       <c r="CS66" s="144"/>
     </row>
     <row r="67" spans="1:97">
-      <c r="A67" s="235" t="s">
+      <c r="A67" s="233" t="s">
         <v>93</v>
       </c>
       <c r="B67" s="58" t="s">
@@ -16363,7 +16355,7 @@
       <c r="C67" s="123" t="s">
         <v>74</v>
       </c>
-      <c r="D67" s="218">
+      <c r="D67" s="216">
         <v>79590</v>
       </c>
       <c r="E67" s="185" t="s">
@@ -16476,17 +16468,17 @@
       <c r="CS67" s="144"/>
     </row>
     <row r="68" spans="1:97">
-      <c r="A68" s="295" t="s">
+      <c r="A68" s="293" t="s">
         <v>91</v>
       </c>
-      <c r="B68" s="299" t="s">
+      <c r="B68" s="297" t="s">
         <v>156</v>
       </c>
-      <c r="C68" s="296"/>
-      <c r="D68" s="297">
+      <c r="C68" s="294"/>
+      <c r="D68" s="295">
         <v>23400</v>
       </c>
-      <c r="E68" s="298" t="s">
+      <c r="E68" s="296" t="s">
         <v>195</v>
       </c>
       <c r="F68" s="138"/>
@@ -16594,19 +16586,19 @@
       <c r="CS68" s="144"/>
     </row>
     <row r="69" spans="1:97">
-      <c r="A69" s="295" t="s">
+      <c r="A69" s="293" t="s">
         <v>93</v>
       </c>
-      <c r="B69" s="301" t="s">
+      <c r="B69" s="299" t="s">
         <v>87</v>
       </c>
-      <c r="C69" s="296" t="s">
+      <c r="C69" s="294" t="s">
         <v>75</v>
       </c>
-      <c r="D69" s="297">
+      <c r="D69" s="295">
         <v>10000</v>
       </c>
-      <c r="E69" s="300" t="s">
+      <c r="E69" s="298" t="s">
         <v>191</v>
       </c>
       <c r="F69" s="65"/>
@@ -16714,17 +16706,17 @@
       <c r="CS69" s="144"/>
     </row>
     <row r="70" spans="1:97">
-      <c r="A70" s="295" t="s">
+      <c r="A70" s="293" t="s">
         <v>96</v>
       </c>
-      <c r="B70" s="299" t="s">
+      <c r="B70" s="297" t="s">
         <v>213</v>
       </c>
-      <c r="C70" s="296"/>
-      <c r="D70" s="297">
+      <c r="C70" s="294"/>
+      <c r="D70" s="295">
         <v>16470</v>
       </c>
-      <c r="E70" s="298" t="s">
+      <c r="E70" s="296" t="s">
         <v>207</v>
       </c>
       <c r="F70" s="138"/>
@@ -16834,10 +16826,10 @@
       <c r="CS70" s="144"/>
     </row>
     <row r="71" spans="1:97">
-      <c r="A71" s="235"/>
+      <c r="A71" s="233"/>
       <c r="B71" s="58"/>
       <c r="C71" s="123"/>
-      <c r="D71" s="218"/>
+      <c r="D71" s="216"/>
       <c r="E71" s="184"/>
       <c r="F71" s="140"/>
       <c r="G71" s="144"/>
@@ -16944,10 +16936,10 @@
       <c r="CS71" s="144"/>
     </row>
     <row r="72" spans="1:97">
-      <c r="A72" s="235"/>
+      <c r="A72" s="233"/>
       <c r="B72" s="125"/>
       <c r="C72" s="123"/>
-      <c r="D72" s="218"/>
+      <c r="D72" s="216"/>
       <c r="E72" s="186"/>
       <c r="F72" s="140"/>
       <c r="G72" s="144"/>
@@ -17056,10 +17048,10 @@
       <c r="CS72" s="144"/>
     </row>
     <row r="73" spans="1:97">
-      <c r="A73" s="235"/>
+      <c r="A73" s="233"/>
       <c r="B73" s="57"/>
       <c r="C73" s="123"/>
-      <c r="D73" s="218"/>
+      <c r="D73" s="216"/>
       <c r="E73" s="184"/>
       <c r="F73" s="140"/>
       <c r="G73" s="144"/>
@@ -17168,10 +17160,10 @@
       <c r="CS73" s="144"/>
     </row>
     <row r="74" spans="1:97">
-      <c r="A74" s="235"/>
+      <c r="A74" s="233"/>
       <c r="B74" s="58"/>
       <c r="C74" s="123"/>
-      <c r="D74" s="218"/>
+      <c r="D74" s="216"/>
       <c r="E74" s="185"/>
       <c r="F74" s="140"/>
       <c r="G74" s="144"/>
@@ -17280,9 +17272,9 @@
       <c r="CS74" s="144"/>
     </row>
     <row r="75" spans="1:97">
-      <c r="A75" s="235"/>
+      <c r="A75" s="233"/>
       <c r="B75" s="58"/>
-      <c r="D75" s="218"/>
+      <c r="D75" s="216"/>
       <c r="E75" s="185"/>
       <c r="F75" s="138"/>
       <c r="G75" s="144"/>
@@ -17381,10 +17373,10 @@
       <c r="CS75" s="144"/>
     </row>
     <row r="76" spans="1:97">
-      <c r="A76" s="235"/>
+      <c r="A76" s="233"/>
       <c r="B76" s="58"/>
       <c r="C76" s="123"/>
-      <c r="D76" s="218"/>
+      <c r="D76" s="216"/>
       <c r="E76" s="186"/>
       <c r="F76" s="138"/>
       <c r="G76" s="144"/>
@@ -17483,10 +17475,10 @@
       <c r="CS76" s="144"/>
     </row>
     <row r="77" spans="1:97">
-      <c r="A77" s="235"/>
+      <c r="A77" s="233"/>
       <c r="B77" s="57"/>
       <c r="C77" s="123"/>
-      <c r="D77" s="218"/>
+      <c r="D77" s="216"/>
       <c r="E77" s="185"/>
       <c r="F77" s="144"/>
       <c r="G77" s="144"/>
@@ -17585,12 +17577,12 @@
       <c r="CS77" s="144"/>
     </row>
     <row r="78" spans="1:97">
-      <c r="A78" s="235"/>
+      <c r="A78" s="233"/>
       <c r="B78" s="58"/>
       <c r="C78" s="123"/>
-      <c r="D78" s="218"/>
+      <c r="D78" s="216"/>
       <c r="E78" s="186"/>
-      <c r="F78" s="289"/>
+      <c r="F78" s="287"/>
       <c r="G78" s="144"/>
       <c r="H78" s="194"/>
       <c r="I78" s="60"/>
@@ -17687,14 +17679,14 @@
       <c r="CS78" s="144"/>
     </row>
     <row r="79" spans="1:97">
-      <c r="A79" s="235" t="s">
+      <c r="A79" s="233" t="s">
         <v>98</v>
       </c>
       <c r="B79" s="58" t="s">
         <v>169</v>
       </c>
       <c r="C79" s="123"/>
-      <c r="D79" s="218">
+      <c r="D79" s="216">
         <v>14890</v>
       </c>
       <c r="E79" s="184" t="s">
@@ -17805,7 +17797,7 @@
       <c r="CS79" s="144"/>
     </row>
     <row r="80" spans="1:97">
-      <c r="A80" s="235" t="s">
+      <c r="A80" s="233" t="s">
         <v>137</v>
       </c>
       <c r="B80" s="58" t="s">
@@ -17814,7 +17806,7 @@
       <c r="C80" s="123">
         <v>1811710431</v>
       </c>
-      <c r="D80" s="218">
+      <c r="D80" s="216">
         <v>3630</v>
       </c>
       <c r="E80" s="184" t="s">
@@ -17925,14 +17917,14 @@
       <c r="CS80" s="144"/>
     </row>
     <row r="81" spans="1:97">
-      <c r="A81" s="235" t="s">
+      <c r="A81" s="233" t="s">
         <v>137</v>
       </c>
       <c r="B81" s="58" t="s">
         <v>138</v>
       </c>
       <c r="C81" s="123"/>
-      <c r="D81" s="220">
+      <c r="D81" s="218">
         <v>29160</v>
       </c>
       <c r="E81" s="185" t="s">
@@ -18045,7 +18037,7 @@
       <c r="CS81" s="144"/>
     </row>
     <row r="82" spans="1:97">
-      <c r="A82" s="235" t="s">
+      <c r="A82" s="233" t="s">
         <v>94</v>
       </c>
       <c r="B82" s="58" t="s">
@@ -18054,7 +18046,7 @@
       <c r="C82" s="123">
         <v>1761236031</v>
       </c>
-      <c r="D82" s="218">
+      <c r="D82" s="216">
         <v>7000</v>
       </c>
       <c r="E82" s="185" t="s">
@@ -18165,14 +18157,14 @@
       <c r="CS82" s="144"/>
     </row>
     <row r="83" spans="1:97">
-      <c r="A83" s="235" t="s">
+      <c r="A83" s="233" t="s">
         <v>94</v>
       </c>
       <c r="B83" s="58" t="s">
         <v>149</v>
       </c>
       <c r="C83" s="123"/>
-      <c r="D83" s="218">
+      <c r="D83" s="216">
         <v>10000</v>
       </c>
       <c r="E83" s="185" t="s">
@@ -18283,20 +18275,20 @@
       <c r="CS83" s="144"/>
     </row>
     <row r="84" spans="1:97">
-      <c r="A84" s="235" t="s">
+      <c r="A84" s="233" t="s">
         <v>94</v>
       </c>
       <c r="B84" s="58" t="s">
         <v>155</v>
       </c>
       <c r="C84" s="123"/>
-      <c r="D84" s="218">
+      <c r="D84" s="216">
         <v>20080</v>
       </c>
       <c r="E84" s="186" t="s">
         <v>187</v>
       </c>
-      <c r="F84" s="286"/>
+      <c r="F84" s="284"/>
       <c r="G84" s="144"/>
       <c r="H84" s="194" t="s">
         <v>85</v>
@@ -18403,14 +18395,14 @@
       <c r="CS84" s="144"/>
     </row>
     <row r="85" spans="1:97">
-      <c r="A85" s="302" t="s">
+      <c r="A85" s="300" t="s">
         <v>94</v>
       </c>
       <c r="B85" s="124" t="s">
         <v>173</v>
       </c>
       <c r="C85" s="123"/>
-      <c r="D85" s="218">
+      <c r="D85" s="216">
         <v>28210</v>
       </c>
       <c r="E85" s="185" t="s">
@@ -18521,7 +18513,7 @@
       <c r="CS85" s="144"/>
     </row>
     <row r="86" spans="1:97">
-      <c r="A86" s="235" t="s">
+      <c r="A86" s="233" t="s">
         <v>94</v>
       </c>
       <c r="B86" s="58" t="s">
@@ -18530,7 +18522,7 @@
       <c r="C86" s="123">
         <v>1309083520</v>
       </c>
-      <c r="D86" s="218">
+      <c r="D86" s="216">
         <v>290000</v>
       </c>
       <c r="E86" s="185" t="s">
@@ -18641,14 +18633,14 @@
       <c r="CS86" s="144"/>
     </row>
     <row r="87" spans="1:97">
-      <c r="A87" s="235" t="s">
+      <c r="A87" s="233" t="s">
         <v>125</v>
       </c>
       <c r="B87" s="58" t="s">
         <v>158</v>
       </c>
       <c r="C87" s="123"/>
-      <c r="D87" s="218">
+      <c r="D87" s="216">
         <v>14900</v>
       </c>
       <c r="E87" s="186" t="s">
@@ -18759,7 +18751,7 @@
       <c r="CS87" s="144"/>
     </row>
     <row r="88" spans="1:97">
-      <c r="A88" s="235" t="s">
+      <c r="A88" s="233" t="s">
         <v>125</v>
       </c>
       <c r="B88" s="58" t="s">
@@ -18768,13 +18760,13 @@
       <c r="C88" s="123">
         <v>1789726772</v>
       </c>
-      <c r="D88" s="218">
+      <c r="D88" s="216">
         <v>42730</v>
       </c>
       <c r="E88" s="185" t="s">
         <v>187</v>
       </c>
-      <c r="F88" s="289"/>
+      <c r="F88" s="287"/>
       <c r="G88" s="144"/>
       <c r="H88" s="194" t="s">
         <v>139</v>
@@ -18881,14 +18873,14 @@
       <c r="CS88" s="144"/>
     </row>
     <row r="89" spans="1:97">
-      <c r="A89" s="235" t="s">
+      <c r="A89" s="233" t="s">
         <v>125</v>
       </c>
       <c r="B89" s="58" t="s">
         <v>200</v>
       </c>
       <c r="C89" s="123"/>
-      <c r="D89" s="218">
+      <c r="D89" s="216">
         <v>3000</v>
       </c>
       <c r="E89" s="186" t="s">
@@ -18999,14 +18991,14 @@
       <c r="CS89" s="144"/>
     </row>
     <row r="90" spans="1:97">
-      <c r="A90" s="234" t="s">
+      <c r="A90" s="232" t="s">
         <v>166</v>
       </c>
       <c r="B90" s="58" t="s">
         <v>167</v>
       </c>
       <c r="C90" s="123"/>
-      <c r="D90" s="218">
+      <c r="D90" s="216">
         <v>42080</v>
       </c>
       <c r="E90" s="186" t="s">
@@ -19119,14 +19111,14 @@
       <c r="CS90" s="144"/>
     </row>
     <row r="91" spans="1:97">
-      <c r="A91" s="234" t="s">
+      <c r="A91" s="232" t="s">
         <v>146</v>
       </c>
       <c r="B91" s="58" t="s">
         <v>212</v>
       </c>
       <c r="C91" s="123"/>
-      <c r="D91" s="218">
+      <c r="D91" s="216">
         <v>5000</v>
       </c>
       <c r="E91" s="185" t="s">
@@ -19237,20 +19229,20 @@
       <c r="CS91" s="144"/>
     </row>
     <row r="92" spans="1:97">
-      <c r="A92" s="235" t="s">
+      <c r="A92" s="233" t="s">
         <v>146</v>
       </c>
       <c r="B92" s="58" t="s">
         <v>147</v>
       </c>
       <c r="C92" s="123"/>
-      <c r="D92" s="218">
+      <c r="D92" s="216">
         <v>50000</v>
       </c>
       <c r="E92" s="185" t="s">
         <v>206</v>
       </c>
-      <c r="F92" s="289"/>
+      <c r="F92" s="287"/>
       <c r="G92" s="144"/>
       <c r="H92" s="194" t="s">
         <v>167</v>
@@ -19355,14 +19347,14 @@
       <c r="CS92" s="144"/>
     </row>
     <row r="93" spans="1:97">
-      <c r="A93" s="235" t="s">
+      <c r="A93" s="233" t="s">
         <v>163</v>
       </c>
       <c r="B93" s="58" t="s">
         <v>164</v>
       </c>
       <c r="C93" s="123"/>
-      <c r="D93" s="218">
+      <c r="D93" s="216">
         <v>7700</v>
       </c>
       <c r="E93" s="185" t="s">
@@ -19473,20 +19465,20 @@
       <c r="CS93" s="144"/>
     </row>
     <row r="94" spans="1:97">
-      <c r="A94" s="235" t="s">
+      <c r="A94" s="233" t="s">
         <v>146</v>
       </c>
       <c r="B94" s="58" t="s">
         <v>181</v>
       </c>
       <c r="C94" s="123"/>
-      <c r="D94" s="218">
+      <c r="D94" s="216">
         <v>9000</v>
       </c>
       <c r="E94" s="186" t="s">
         <v>191</v>
       </c>
-      <c r="F94" s="289"/>
+      <c r="F94" s="287"/>
       <c r="G94" s="144"/>
       <c r="H94" s="194" t="s">
         <v>147</v>
@@ -19591,14 +19583,14 @@
       <c r="CS94" s="144"/>
     </row>
     <row r="95" spans="1:97">
-      <c r="A95" s="235" t="s">
+      <c r="A95" s="233" t="s">
         <v>223</v>
       </c>
       <c r="B95" s="58" t="s">
         <v>214</v>
       </c>
       <c r="C95" s="123"/>
-      <c r="D95" s="218">
+      <c r="D95" s="216">
         <v>6000</v>
       </c>
       <c r="E95" s="184" t="s">
@@ -19709,10 +19701,10 @@
       <c r="CS95" s="144"/>
     </row>
     <row r="96" spans="1:97">
-      <c r="A96" s="235"/>
+      <c r="A96" s="233"/>
       <c r="B96" s="58"/>
       <c r="C96" s="123"/>
-      <c r="D96" s="218"/>
+      <c r="D96" s="216"/>
       <c r="E96" s="184"/>
       <c r="F96" s="144"/>
       <c r="G96" s="144"/>
@@ -19819,10 +19811,10 @@
       <c r="CS96" s="144"/>
     </row>
     <row r="97" spans="1:97">
-      <c r="A97" s="235"/>
+      <c r="A97" s="233"/>
       <c r="B97" s="58"/>
       <c r="C97" s="123"/>
-      <c r="D97" s="218"/>
+      <c r="D97" s="216"/>
       <c r="E97" s="186"/>
       <c r="F97" s="144"/>
       <c r="G97" s="144"/>
@@ -19929,10 +19921,10 @@
       <c r="CS97" s="144"/>
     </row>
     <row r="98" spans="1:97">
-      <c r="A98" s="235"/>
+      <c r="A98" s="233"/>
       <c r="B98" s="58"/>
       <c r="C98" s="123"/>
-      <c r="D98" s="218"/>
+      <c r="D98" s="216"/>
       <c r="E98" s="186"/>
       <c r="F98" s="144"/>
       <c r="G98" s="144"/>
@@ -20039,10 +20031,10 @@
       <c r="CS98" s="144"/>
     </row>
     <row r="99" spans="1:97">
-      <c r="A99" s="235"/>
+      <c r="A99" s="233"/>
       <c r="B99" s="58"/>
       <c r="C99" s="123"/>
-      <c r="D99" s="218"/>
+      <c r="D99" s="216"/>
       <c r="E99" s="186"/>
       <c r="F99" s="144"/>
       <c r="G99" s="144"/>
@@ -20151,10 +20143,10 @@
       <c r="CS99" s="144"/>
     </row>
     <row r="100" spans="1:97">
-      <c r="A100" s="235"/>
+      <c r="A100" s="233"/>
       <c r="B100" s="58"/>
       <c r="C100" s="123"/>
-      <c r="D100" s="218"/>
+      <c r="D100" s="216"/>
       <c r="E100" s="184"/>
       <c r="F100" s="144"/>
       <c r="G100" s="144"/>
@@ -20263,10 +20255,10 @@
       <c r="CS100" s="144"/>
     </row>
     <row r="101" spans="1:97">
-      <c r="A101" s="235"/>
+      <c r="A101" s="233"/>
       <c r="B101" s="58"/>
       <c r="C101" s="123"/>
-      <c r="D101" s="218"/>
+      <c r="D101" s="216"/>
       <c r="E101" s="185"/>
       <c r="F101" s="144"/>
       <c r="G101" s="144"/>
@@ -20375,10 +20367,10 @@
       <c r="CS101" s="144"/>
     </row>
     <row r="102" spans="1:97">
-      <c r="A102" s="235"/>
+      <c r="A102" s="233"/>
       <c r="B102" s="58"/>
       <c r="C102" s="123"/>
-      <c r="D102" s="218"/>
+      <c r="D102" s="216"/>
       <c r="E102" s="186"/>
       <c r="F102" s="144"/>
       <c r="G102" s="144"/>
@@ -20487,10 +20479,10 @@
       <c r="CS102" s="144"/>
     </row>
     <row r="103" spans="1:97">
-      <c r="A103" s="235"/>
+      <c r="A103" s="233"/>
       <c r="B103" s="58"/>
-      <c r="C103" s="237"/>
-      <c r="D103" s="218"/>
+      <c r="C103" s="235"/>
+      <c r="D103" s="216"/>
       <c r="E103" s="186"/>
       <c r="F103" s="144"/>
       <c r="G103" s="144"/>
@@ -20599,10 +20591,10 @@
       <c r="CS103" s="144"/>
     </row>
     <row r="104" spans="1:97">
-      <c r="A104" s="235"/>
+      <c r="A104" s="233"/>
       <c r="B104" s="58"/>
       <c r="C104" s="123"/>
-      <c r="D104" s="218"/>
+      <c r="D104" s="216"/>
       <c r="E104" s="186"/>
       <c r="F104" s="144"/>
       <c r="G104" s="144"/>
@@ -20711,10 +20703,10 @@
       <c r="CS104" s="144"/>
     </row>
     <row r="105" spans="1:97">
-      <c r="A105" s="235"/>
+      <c r="A105" s="233"/>
       <c r="B105" s="57"/>
       <c r="C105" s="56"/>
-      <c r="D105" s="218"/>
+      <c r="D105" s="216"/>
       <c r="E105" s="185"/>
       <c r="F105" s="144"/>
       <c r="G105" s="144"/>
@@ -20821,10 +20813,10 @@
       <c r="CS105" s="144"/>
     </row>
     <row r="106" spans="1:97">
-      <c r="A106" s="235"/>
+      <c r="A106" s="233"/>
       <c r="B106" s="58"/>
       <c r="C106" s="123"/>
-      <c r="D106" s="218"/>
+      <c r="D106" s="216"/>
       <c r="E106" s="186"/>
       <c r="F106" s="144"/>
       <c r="G106" s="144"/>
@@ -20923,10 +20915,10 @@
       <c r="CS106" s="144"/>
     </row>
     <row r="107" spans="1:97">
-      <c r="A107" s="235"/>
+      <c r="A107" s="233"/>
       <c r="B107" s="58"/>
       <c r="C107" s="123"/>
-      <c r="D107" s="218"/>
+      <c r="D107" s="216"/>
       <c r="E107" s="186"/>
       <c r="F107" s="144"/>
       <c r="G107" s="144"/>
@@ -21025,10 +21017,10 @@
       <c r="CS107" s="144"/>
     </row>
     <row r="108" spans="1:97">
-      <c r="A108" s="235"/>
+      <c r="A108" s="233"/>
       <c r="B108" s="58"/>
       <c r="C108" s="123"/>
-      <c r="D108" s="218"/>
+      <c r="D108" s="216"/>
       <c r="E108" s="186"/>
       <c r="F108" s="144"/>
       <c r="G108" s="144" t="s">
@@ -21129,10 +21121,10 @@
       <c r="CS108" s="144"/>
     </row>
     <row r="109" spans="1:97">
-      <c r="A109" s="235"/>
+      <c r="A109" s="233"/>
       <c r="B109" s="58"/>
       <c r="C109" s="123"/>
-      <c r="D109" s="218"/>
+      <c r="D109" s="216"/>
       <c r="E109" s="186"/>
       <c r="F109" s="144"/>
       <c r="G109" s="144"/>
@@ -21231,10 +21223,10 @@
       <c r="CS109" s="144"/>
     </row>
     <row r="110" spans="1:97">
-      <c r="A110" s="235"/>
+      <c r="A110" s="233"/>
       <c r="B110" s="58"/>
       <c r="C110" s="123"/>
-      <c r="D110" s="218"/>
+      <c r="D110" s="216"/>
       <c r="E110" s="186"/>
       <c r="F110" s="144"/>
       <c r="G110" s="144"/>
@@ -21333,10 +21325,10 @@
       <c r="CS110" s="144"/>
     </row>
     <row r="111" spans="1:97">
-      <c r="A111" s="235"/>
+      <c r="A111" s="233"/>
       <c r="B111" s="58"/>
       <c r="C111" s="123"/>
-      <c r="D111" s="218"/>
+      <c r="D111" s="216"/>
       <c r="E111" s="186"/>
       <c r="F111" s="144"/>
       <c r="G111" s="144"/>
@@ -21435,10 +21427,10 @@
       <c r="CS111" s="144"/>
     </row>
     <row r="112" spans="1:97">
-      <c r="A112" s="235"/>
+      <c r="A112" s="233"/>
       <c r="B112" s="57"/>
-      <c r="C112" s="237"/>
-      <c r="D112" s="218"/>
+      <c r="C112" s="235"/>
+      <c r="D112" s="216"/>
       <c r="E112" s="186"/>
       <c r="F112" s="144"/>
       <c r="G112" s="144"/>
@@ -21537,10 +21529,10 @@
       <c r="CS112" s="144"/>
     </row>
     <row r="113" spans="1:97">
-      <c r="A113" s="235"/>
+      <c r="A113" s="233"/>
       <c r="B113" s="58"/>
       <c r="C113" s="123"/>
-      <c r="D113" s="218"/>
+      <c r="D113" s="216"/>
       <c r="E113" s="186"/>
       <c r="F113" s="144"/>
       <c r="G113" s="144"/>
@@ -21639,10 +21631,10 @@
       <c r="CS113" s="144"/>
     </row>
     <row r="114" spans="1:97">
-      <c r="A114" s="235"/>
+      <c r="A114" s="233"/>
       <c r="B114" s="58"/>
       <c r="C114" s="123"/>
-      <c r="D114" s="218"/>
+      <c r="D114" s="216"/>
       <c r="E114" s="186"/>
       <c r="F114" s="144"/>
       <c r="G114" s="144"/>
@@ -21741,10 +21733,10 @@
       <c r="CS114" s="144"/>
     </row>
     <row r="115" spans="1:97">
-      <c r="A115" s="235"/>
+      <c r="A115" s="233"/>
       <c r="B115" s="58"/>
       <c r="C115" s="123"/>
-      <c r="D115" s="218"/>
+      <c r="D115" s="216"/>
       <c r="E115" s="186"/>
       <c r="F115" s="144"/>
       <c r="G115" s="144"/>
@@ -21843,7 +21835,7 @@
       <c r="CS115" s="144"/>
     </row>
     <row r="116" spans="1:97">
-      <c r="A116" s="235" t="s">
+      <c r="A116" s="233" t="s">
         <v>98</v>
       </c>
       <c r="B116" s="58" t="s">
@@ -21852,7 +21844,7 @@
       <c r="C116" s="123">
         <v>1763999686</v>
       </c>
-      <c r="D116" s="218">
+      <c r="D116" s="216">
         <v>40000</v>
       </c>
       <c r="E116" s="186" t="s">
@@ -21955,7 +21947,7 @@
       <c r="CS116" s="144"/>
     </row>
     <row r="117" spans="1:97">
-      <c r="A117" s="235" t="s">
+      <c r="A117" s="233" t="s">
         <v>98</v>
       </c>
       <c r="B117" s="58" t="s">
@@ -21964,7 +21956,7 @@
       <c r="C117" s="123">
         <v>1739992171</v>
       </c>
-      <c r="D117" s="218">
+      <c r="D117" s="216">
         <v>17500</v>
       </c>
       <c r="E117" s="186" t="s">
@@ -22067,7 +22059,7 @@
       <c r="CS117" s="144"/>
     </row>
     <row r="118" spans="1:97" ht="13.5" thickBot="1">
-      <c r="A118" s="236" t="s">
+      <c r="A118" s="234" t="s">
         <v>98</v>
       </c>
       <c r="B118" s="180" t="s">
@@ -22076,7 +22068,7 @@
       <c r="C118" s="123">
         <v>1758900692</v>
       </c>
-      <c r="D118" s="268">
+      <c r="D118" s="266">
         <v>30000</v>
       </c>
       <c r="E118" s="187" t="s">
@@ -22184,11 +22176,11 @@
       </c>
       <c r="B119" s="335"/>
       <c r="C119" s="347"/>
-      <c r="D119" s="221">
+      <c r="D119" s="219">
         <f>SUM(D37:D118)</f>
-        <v>3132265</v>
-      </c>
-      <c r="E119" s="213"/>
+        <v>3125065</v>
+      </c>
+      <c r="E119" s="212"/>
       <c r="F119" s="144"/>
       <c r="H119" s="181"/>
       <c r="I119" s="61"/>
@@ -22391,25 +22383,25 @@
       </c>
       <c r="B121" s="335"/>
       <c r="C121" s="335"/>
-      <c r="D121" s="221">
+      <c r="D121" s="219">
         <f>D119+M121</f>
-        <v>3132265</v>
-      </c>
-      <c r="E121" s="213"/>
+        <v>3125065</v>
+      </c>
+      <c r="E121" s="212"/>
       <c r="F121" s="144"/>
       <c r="G121" s="144"/>
-      <c r="H121" s="225"/>
+      <c r="H121" s="223"/>
       <c r="I121" s="192"/>
-      <c r="J121" s="226">
+      <c r="J121" s="224">
         <f>SUM(J46:J120)</f>
         <v>3383495</v>
       </c>
-      <c r="K121" s="227"/>
-      <c r="L121" s="228">
+      <c r="K121" s="225"/>
+      <c r="L121" s="226">
         <f>SUM(L46:L120)</f>
         <v>3383495</v>
       </c>
-      <c r="M121" s="229">
+      <c r="M121" s="227">
         <f>SUM(J121-L121)</f>
         <v>0</v>
       </c>
@@ -22502,7 +22494,7 @@
       <c r="A122" s="144"/>
       <c r="B122" s="169"/>
       <c r="C122" s="169"/>
-      <c r="D122" s="222"/>
+      <c r="D122" s="220"/>
       <c r="E122" s="144"/>
       <c r="F122" s="144"/>
       <c r="G122" s="65" t="s">
@@ -23296,7 +23288,7 @@
       <c r="A130" s="144"/>
       <c r="B130" s="169"/>
       <c r="C130" s="169"/>
-      <c r="D130" s="222"/>
+      <c r="D130" s="220"/>
       <c r="E130" s="144"/>
       <c r="F130" s="144"/>
       <c r="G130" s="65"/>
@@ -23395,7 +23387,7 @@
       <c r="A131" s="144"/>
       <c r="B131" s="169"/>
       <c r="C131" s="169"/>
-      <c r="D131" s="222"/>
+      <c r="D131" s="220"/>
       <c r="E131" s="144"/>
       <c r="F131" s="144"/>
       <c r="G131" s="65"/>
@@ -23494,7 +23486,7 @@
       <c r="A132" s="144"/>
       <c r="B132" s="169"/>
       <c r="C132" s="169"/>
-      <c r="D132" s="223"/>
+      <c r="D132" s="221"/>
       <c r="E132" s="144"/>
       <c r="F132" s="144"/>
       <c r="G132" s="65"/>
@@ -23593,7 +23585,7 @@
       <c r="A133" s="144"/>
       <c r="B133" s="169"/>
       <c r="C133" s="169"/>
-      <c r="D133" s="223"/>
+      <c r="D133" s="221"/>
       <c r="E133" s="144"/>
       <c r="F133" s="144"/>
       <c r="G133" s="65"/>
@@ -23692,7 +23684,7 @@
       <c r="A134" s="144"/>
       <c r="B134" s="169"/>
       <c r="C134" s="169"/>
-      <c r="D134" s="223"/>
+      <c r="D134" s="221"/>
       <c r="E134" s="144"/>
       <c r="F134" s="144"/>
       <c r="G134" s="65"/>
@@ -23791,7 +23783,7 @@
       <c r="A135" s="144"/>
       <c r="B135" s="169"/>
       <c r="C135" s="169"/>
-      <c r="D135" s="223"/>
+      <c r="D135" s="221"/>
       <c r="E135" s="144"/>
       <c r="F135" s="144"/>
       <c r="G135" s="65"/>
@@ -23890,7 +23882,7 @@
       <c r="A136" s="144"/>
       <c r="B136" s="169"/>
       <c r="C136" s="169"/>
-      <c r="D136" s="223"/>
+      <c r="D136" s="221"/>
       <c r="E136" s="144"/>
       <c r="F136" s="144"/>
       <c r="G136" s="65"/>
@@ -23989,7 +23981,7 @@
       <c r="A137" s="144"/>
       <c r="B137" s="162"/>
       <c r="C137" s="162"/>
-      <c r="D137" s="224"/>
+      <c r="D137" s="222"/>
       <c r="E137" s="65"/>
       <c r="F137" s="65"/>
       <c r="G137" s="65"/>
@@ -24088,7 +24080,7 @@
       <c r="A138" s="144"/>
       <c r="B138" s="162"/>
       <c r="C138" s="162"/>
-      <c r="D138" s="224"/>
+      <c r="D138" s="222"/>
       <c r="E138" s="65"/>
       <c r="F138" s="65"/>
       <c r="G138" s="65"/>
@@ -24187,7 +24179,7 @@
       <c r="A139" s="65"/>
       <c r="B139" s="162"/>
       <c r="C139" s="162"/>
-      <c r="D139" s="224"/>
+      <c r="D139" s="222"/>
       <c r="E139" s="65"/>
       <c r="F139" s="65"/>
       <c r="G139" s="65"/>
@@ -24285,7 +24277,7 @@
     <row r="140" spans="1:97" s="144" customFormat="1">
       <c r="B140" s="162"/>
       <c r="C140" s="162"/>
-      <c r="D140" s="224"/>
+      <c r="D140" s="222"/>
       <c r="E140" s="65"/>
       <c r="F140" s="65"/>
       <c r="G140" s="65"/>
@@ -24347,7 +24339,7 @@
     <row r="141" spans="1:97" s="144" customFormat="1">
       <c r="B141" s="162"/>
       <c r="C141" s="162"/>
-      <c r="D141" s="224"/>
+      <c r="D141" s="222"/>
       <c r="E141" s="65"/>
       <c r="F141" s="65"/>
       <c r="G141" s="65"/>
@@ -24372,7 +24364,7 @@
     <row r="142" spans="1:97" s="144" customFormat="1">
       <c r="B142" s="169"/>
       <c r="C142" s="169"/>
-      <c r="D142" s="223"/>
+      <c r="D142" s="221"/>
       <c r="G142" s="65"/>
       <c r="H142" s="65"/>
       <c r="I142" s="149"/>
@@ -24395,7 +24387,7 @@
     <row r="143" spans="1:97" s="144" customFormat="1">
       <c r="B143" s="169"/>
       <c r="C143" s="169"/>
-      <c r="D143" s="223"/>
+      <c r="D143" s="221"/>
       <c r="G143" s="65"/>
       <c r="H143" s="65"/>
       <c r="I143" s="149"/>
@@ -24418,7 +24410,7 @@
     <row r="144" spans="1:97" s="144" customFormat="1">
       <c r="B144" s="169"/>
       <c r="C144" s="169"/>
-      <c r="D144" s="223"/>
+      <c r="D144" s="221"/>
       <c r="G144" s="65"/>
       <c r="H144" s="65"/>
       <c r="I144" s="149"/>
@@ -24441,7 +24433,7 @@
     <row r="145" spans="2:24" s="144" customFormat="1">
       <c r="B145" s="169"/>
       <c r="C145" s="169"/>
-      <c r="D145" s="223"/>
+      <c r="D145" s="221"/>
       <c r="G145" s="65"/>
       <c r="H145" s="65"/>
       <c r="I145" s="149"/>
@@ -24464,7 +24456,7 @@
     <row r="146" spans="2:24" s="144" customFormat="1">
       <c r="B146" s="169"/>
       <c r="C146" s="169"/>
-      <c r="D146" s="223"/>
+      <c r="D146" s="221"/>
       <c r="G146" s="65"/>
       <c r="H146" s="65"/>
       <c r="I146" s="149"/>
@@ -24487,7 +24479,7 @@
     <row r="147" spans="2:24" s="144" customFormat="1">
       <c r="B147" s="169"/>
       <c r="C147" s="169"/>
-      <c r="D147" s="223"/>
+      <c r="D147" s="221"/>
       <c r="G147" s="65"/>
       <c r="H147" s="65"/>
       <c r="I147" s="149"/>
@@ -24510,7 +24502,7 @@
     <row r="148" spans="2:24" s="144" customFormat="1">
       <c r="B148" s="169"/>
       <c r="C148" s="169"/>
-      <c r="D148" s="223"/>
+      <c r="D148" s="221"/>
       <c r="G148" s="65"/>
       <c r="H148" s="65"/>
       <c r="I148" s="149"/>
@@ -24530,7 +24522,7 @@
     <row r="149" spans="2:24" s="144" customFormat="1">
       <c r="B149" s="169"/>
       <c r="C149" s="169"/>
-      <c r="D149" s="223"/>
+      <c r="D149" s="221"/>
       <c r="G149" s="65"/>
       <c r="H149" s="65"/>
       <c r="I149" s="149"/>
@@ -24550,7 +24542,7 @@
     <row r="150" spans="2:24" s="144" customFormat="1">
       <c r="B150" s="169"/>
       <c r="C150" s="169"/>
-      <c r="D150" s="223"/>
+      <c r="D150" s="221"/>
       <c r="G150" s="65"/>
       <c r="H150" s="65"/>
       <c r="I150" s="149"/>
@@ -24570,7 +24562,7 @@
     <row r="151" spans="2:24" s="144" customFormat="1">
       <c r="B151" s="169"/>
       <c r="C151" s="169"/>
-      <c r="D151" s="223"/>
+      <c r="D151" s="221"/>
       <c r="G151" s="65"/>
       <c r="H151" s="65"/>
       <c r="I151" s="149"/>
@@ -24590,7 +24582,7 @@
     <row r="152" spans="2:24" s="144" customFormat="1">
       <c r="B152" s="169"/>
       <c r="C152" s="169"/>
-      <c r="D152" s="223"/>
+      <c r="D152" s="221"/>
       <c r="G152" s="65"/>
       <c r="H152" s="65"/>
       <c r="I152" s="149"/>
@@ -24610,7 +24602,7 @@
     <row r="153" spans="2:24" s="144" customFormat="1">
       <c r="B153" s="169"/>
       <c r="C153" s="169"/>
-      <c r="D153" s="223"/>
+      <c r="D153" s="221"/>
       <c r="G153" s="65"/>
       <c r="H153" s="65"/>
       <c r="I153" s="149"/>
@@ -24630,7 +24622,7 @@
     <row r="154" spans="2:24" s="144" customFormat="1">
       <c r="B154" s="169"/>
       <c r="C154" s="169"/>
-      <c r="D154" s="223"/>
+      <c r="D154" s="221"/>
       <c r="G154" s="65"/>
       <c r="H154" s="65"/>
       <c r="I154" s="149"/>
@@ -24650,7 +24642,7 @@
     <row r="155" spans="2:24" s="144" customFormat="1">
       <c r="B155" s="169"/>
       <c r="C155" s="169"/>
-      <c r="D155" s="223"/>
+      <c r="D155" s="221"/>
       <c r="G155" s="65"/>
       <c r="H155" s="65"/>
       <c r="I155" s="149"/>
@@ -24670,7 +24662,7 @@
     <row r="156" spans="2:24" s="144" customFormat="1">
       <c r="B156" s="169"/>
       <c r="C156" s="169"/>
-      <c r="D156" s="223"/>
+      <c r="D156" s="221"/>
       <c r="G156" s="65"/>
       <c r="H156" s="65"/>
       <c r="I156" s="149"/>
@@ -24690,7 +24682,7 @@
     <row r="157" spans="2:24" s="144" customFormat="1">
       <c r="B157" s="169"/>
       <c r="C157" s="169"/>
-      <c r="D157" s="223"/>
+      <c r="D157" s="221"/>
       <c r="G157" s="65"/>
       <c r="H157" s="65"/>
       <c r="I157" s="149"/>
@@ -24702,7 +24694,7 @@
     <row r="158" spans="2:24" s="144" customFormat="1">
       <c r="B158" s="169"/>
       <c r="C158" s="169"/>
-      <c r="D158" s="223"/>
+      <c r="D158" s="221"/>
       <c r="G158" s="65"/>
       <c r="H158" s="65"/>
       <c r="I158" s="149"/>
@@ -24714,7 +24706,7 @@
     <row r="159" spans="2:24" s="144" customFormat="1">
       <c r="B159" s="169"/>
       <c r="C159" s="169"/>
-      <c r="D159" s="223"/>
+      <c r="D159" s="221"/>
       <c r="G159" s="65"/>
       <c r="H159" s="65"/>
       <c r="I159" s="149"/>
@@ -24726,7 +24718,7 @@
     <row r="160" spans="2:24" s="144" customFormat="1">
       <c r="B160" s="169"/>
       <c r="C160" s="169"/>
-      <c r="D160" s="223"/>
+      <c r="D160" s="221"/>
       <c r="G160" s="65"/>
       <c r="H160" s="65"/>
       <c r="I160" s="149"/>
@@ -24738,7 +24730,7 @@
     <row r="161" spans="2:14" s="144" customFormat="1">
       <c r="B161" s="169"/>
       <c r="C161" s="169"/>
-      <c r="D161" s="223"/>
+      <c r="D161" s="221"/>
       <c r="G161" s="65"/>
       <c r="H161" s="65"/>
       <c r="I161" s="149"/>
@@ -24750,7 +24742,7 @@
     <row r="162" spans="2:14" s="144" customFormat="1">
       <c r="B162" s="169"/>
       <c r="C162" s="169"/>
-      <c r="D162" s="223"/>
+      <c r="D162" s="221"/>
       <c r="G162" s="65"/>
       <c r="H162" s="65"/>
       <c r="I162" s="149"/>
@@ -24762,7 +24754,7 @@
     <row r="163" spans="2:14" s="144" customFormat="1">
       <c r="B163" s="169"/>
       <c r="C163" s="169"/>
-      <c r="D163" s="223"/>
+      <c r="D163" s="221"/>
       <c r="G163" s="65"/>
       <c r="H163" s="65"/>
       <c r="I163" s="149"/>
@@ -24774,7 +24766,7 @@
     <row r="164" spans="2:14" s="144" customFormat="1">
       <c r="B164" s="169"/>
       <c r="C164" s="169"/>
-      <c r="D164" s="223"/>
+      <c r="D164" s="221"/>
       <c r="G164" s="65"/>
       <c r="H164" s="65"/>
       <c r="I164" s="149"/>
@@ -24786,7 +24778,7 @@
     <row r="165" spans="2:14" s="144" customFormat="1">
       <c r="B165" s="169"/>
       <c r="C165" s="169"/>
-      <c r="D165" s="223"/>
+      <c r="D165" s="221"/>
       <c r="G165" s="65"/>
       <c r="H165" s="65"/>
       <c r="I165" s="149"/>
@@ -24798,7 +24790,7 @@
     <row r="166" spans="2:14" s="144" customFormat="1">
       <c r="B166" s="169"/>
       <c r="C166" s="169"/>
-      <c r="D166" s="223"/>
+      <c r="D166" s="221"/>
       <c r="G166" s="65"/>
       <c r="H166" s="65"/>
       <c r="I166" s="149"/>
@@ -24810,7 +24802,7 @@
     <row r="167" spans="2:14" s="144" customFormat="1">
       <c r="B167" s="169"/>
       <c r="C167" s="169"/>
-      <c r="D167" s="223"/>
+      <c r="D167" s="221"/>
       <c r="G167" s="65"/>
       <c r="H167" s="65"/>
       <c r="I167" s="149"/>
@@ -24822,7 +24814,7 @@
     <row r="168" spans="2:14" s="144" customFormat="1">
       <c r="B168" s="169"/>
       <c r="C168" s="169"/>
-      <c r="D168" s="223"/>
+      <c r="D168" s="221"/>
       <c r="G168" s="65"/>
       <c r="H168" s="65"/>
       <c r="I168" s="149"/>
@@ -24834,7 +24826,7 @@
     <row r="169" spans="2:14" s="144" customFormat="1">
       <c r="B169" s="169"/>
       <c r="C169" s="169"/>
-      <c r="D169" s="223"/>
+      <c r="D169" s="221"/>
       <c r="G169" s="65"/>
       <c r="H169" s="65"/>
       <c r="I169" s="149"/>
@@ -24847,7 +24839,7 @@
     <row r="170" spans="2:14" s="144" customFormat="1">
       <c r="B170" s="169"/>
       <c r="C170" s="169"/>
-      <c r="D170" s="223"/>
+      <c r="D170" s="221"/>
       <c r="G170" s="65"/>
       <c r="H170" s="65"/>
       <c r="I170" s="149"/>
@@ -24860,7 +24852,7 @@
     <row r="171" spans="2:14" s="144" customFormat="1">
       <c r="B171" s="169"/>
       <c r="C171" s="169"/>
-      <c r="D171" s="223"/>
+      <c r="D171" s="221"/>
       <c r="G171" s="65"/>
       <c r="H171" s="65"/>
       <c r="I171" s="149"/>
@@ -24873,7 +24865,7 @@
     <row r="172" spans="2:14" s="144" customFormat="1">
       <c r="B172" s="169"/>
       <c r="C172" s="169"/>
-      <c r="D172" s="223"/>
+      <c r="D172" s="221"/>
       <c r="G172" s="65"/>
       <c r="H172" s="65"/>
       <c r="I172" s="154"/>
@@ -24886,7 +24878,7 @@
     <row r="173" spans="2:14" s="144" customFormat="1">
       <c r="B173" s="169"/>
       <c r="C173" s="169"/>
-      <c r="D173" s="223"/>
+      <c r="D173" s="221"/>
       <c r="G173" s="65"/>
       <c r="H173" s="65"/>
       <c r="I173" s="149"/>
@@ -24899,7 +24891,7 @@
     <row r="174" spans="2:14" s="144" customFormat="1">
       <c r="B174" s="169"/>
       <c r="C174" s="169"/>
-      <c r="D174" s="223"/>
+      <c r="D174" s="221"/>
       <c r="F174" s="65"/>
       <c r="G174" s="65"/>
       <c r="H174" s="65"/>
@@ -24913,7 +24905,7 @@
     <row r="175" spans="2:14" s="144" customFormat="1">
       <c r="B175" s="169"/>
       <c r="C175" s="169"/>
-      <c r="D175" s="223"/>
+      <c r="D175" s="221"/>
       <c r="F175" s="65"/>
       <c r="G175" s="65"/>
       <c r="H175" s="65"/>
@@ -24927,7 +24919,7 @@
     <row r="176" spans="2:14" s="144" customFormat="1">
       <c r="B176" s="169"/>
       <c r="C176" s="169"/>
-      <c r="D176" s="223"/>
+      <c r="D176" s="221"/>
       <c r="F176" s="65"/>
       <c r="G176" s="65"/>
       <c r="H176" s="65"/>
@@ -24941,7 +24933,7 @@
     <row r="177" spans="2:13" s="144" customFormat="1">
       <c r="B177" s="169"/>
       <c r="C177" s="169"/>
-      <c r="D177" s="223"/>
+      <c r="D177" s="221"/>
       <c r="F177" s="65"/>
       <c r="G177" s="65"/>
       <c r="H177" s="65"/>
@@ -24954,7 +24946,7 @@
     <row r="178" spans="2:13" s="144" customFormat="1">
       <c r="B178" s="169"/>
       <c r="C178" s="169"/>
-      <c r="D178" s="223"/>
+      <c r="D178" s="221"/>
       <c r="F178" s="65"/>
       <c r="G178" s="65"/>
       <c r="H178" s="65"/>
@@ -24967,7 +24959,7 @@
     <row r="179" spans="2:13" s="144" customFormat="1">
       <c r="B179" s="169"/>
       <c r="C179" s="169"/>
-      <c r="D179" s="223"/>
+      <c r="D179" s="221"/>
       <c r="F179" s="65"/>
       <c r="G179" s="65"/>
       <c r="H179" s="65"/>
@@ -24980,7 +24972,7 @@
     <row r="180" spans="2:13" s="144" customFormat="1">
       <c r="B180" s="169"/>
       <c r="C180" s="169"/>
-      <c r="D180" s="223"/>
+      <c r="D180" s="221"/>
       <c r="F180" s="65"/>
       <c r="G180" s="65"/>
       <c r="H180" s="65"/>
@@ -24993,7 +24985,7 @@
     <row r="181" spans="2:13" s="144" customFormat="1">
       <c r="B181" s="169"/>
       <c r="C181" s="169"/>
-      <c r="D181" s="223"/>
+      <c r="D181" s="221"/>
       <c r="F181" s="65"/>
       <c r="G181" s="65"/>
       <c r="H181" s="65"/>
@@ -25006,7 +24998,7 @@
     <row r="182" spans="2:13" s="144" customFormat="1">
       <c r="B182" s="169"/>
       <c r="C182" s="169"/>
-      <c r="D182" s="223"/>
+      <c r="D182" s="221"/>
       <c r="F182" s="65"/>
       <c r="G182" s="65"/>
       <c r="H182" s="65"/>
@@ -25019,7 +25011,7 @@
     <row r="183" spans="2:13" s="144" customFormat="1">
       <c r="B183" s="169"/>
       <c r="C183" s="169"/>
-      <c r="D183" s="223"/>
+      <c r="D183" s="221"/>
       <c r="F183" s="65"/>
       <c r="G183" s="65"/>
       <c r="H183" s="65"/>
@@ -25032,7 +25024,7 @@
     <row r="184" spans="2:13" s="144" customFormat="1">
       <c r="B184" s="169"/>
       <c r="C184" s="169"/>
-      <c r="D184" s="223"/>
+      <c r="D184" s="221"/>
       <c r="F184" s="65"/>
       <c r="G184" s="65"/>
       <c r="H184" s="65"/>
@@ -25045,7 +25037,7 @@
     <row r="185" spans="2:13" s="144" customFormat="1">
       <c r="B185" s="169"/>
       <c r="C185" s="169"/>
-      <c r="D185" s="223"/>
+      <c r="D185" s="221"/>
       <c r="F185" s="65"/>
       <c r="G185" s="65"/>
       <c r="H185" s="65"/>
@@ -25058,7 +25050,7 @@
     <row r="186" spans="2:13" s="144" customFormat="1">
       <c r="B186" s="169"/>
       <c r="C186" s="169"/>
-      <c r="D186" s="223"/>
+      <c r="D186" s="221"/>
       <c r="F186" s="65"/>
       <c r="G186" s="65"/>
       <c r="H186" s="65"/>
@@ -25071,7 +25063,7 @@
     <row r="187" spans="2:13" s="144" customFormat="1">
       <c r="B187" s="169"/>
       <c r="C187" s="169"/>
-      <c r="D187" s="223"/>
+      <c r="D187" s="221"/>
       <c r="F187" s="65"/>
       <c r="G187" s="65"/>
       <c r="H187" s="65"/>
@@ -25084,7 +25076,7 @@
     <row r="188" spans="2:13" s="144" customFormat="1">
       <c r="B188" s="169"/>
       <c r="C188" s="169"/>
-      <c r="D188" s="223"/>
+      <c r="D188" s="221"/>
       <c r="F188" s="65"/>
       <c r="G188" s="65"/>
       <c r="H188" s="65"/>
@@ -25097,7 +25089,7 @@
     <row r="189" spans="2:13" s="144" customFormat="1">
       <c r="B189" s="169"/>
       <c r="C189" s="169"/>
-      <c r="D189" s="223"/>
+      <c r="D189" s="221"/>
       <c r="F189" s="65"/>
       <c r="G189" s="65"/>
       <c r="H189" s="65"/>
@@ -25110,7 +25102,7 @@
     <row r="190" spans="2:13" s="144" customFormat="1">
       <c r="B190" s="169"/>
       <c r="C190" s="169"/>
-      <c r="D190" s="223"/>
+      <c r="D190" s="221"/>
       <c r="F190" s="65"/>
       <c r="G190" s="65"/>
       <c r="H190" s="65"/>
@@ -25123,7 +25115,7 @@
     <row r="191" spans="2:13" s="144" customFormat="1">
       <c r="B191" s="169"/>
       <c r="C191" s="169"/>
-      <c r="D191" s="223"/>
+      <c r="D191" s="221"/>
       <c r="F191" s="65"/>
       <c r="G191" s="65"/>
       <c r="H191" s="65"/>
@@ -25136,7 +25128,7 @@
     <row r="192" spans="2:13" s="144" customFormat="1">
       <c r="B192" s="169"/>
       <c r="C192" s="169"/>
-      <c r="D192" s="223"/>
+      <c r="D192" s="221"/>
       <c r="F192" s="65"/>
       <c r="G192" s="65"/>
       <c r="H192" s="65"/>
@@ -25149,7 +25141,7 @@
     <row r="193" spans="2:13" s="144" customFormat="1">
       <c r="B193" s="169"/>
       <c r="C193" s="169"/>
-      <c r="D193" s="223"/>
+      <c r="D193" s="221"/>
       <c r="F193" s="65"/>
       <c r="G193" s="65"/>
       <c r="H193" s="65"/>
@@ -25162,7 +25154,7 @@
     <row r="194" spans="2:13" s="144" customFormat="1">
       <c r="B194" s="169"/>
       <c r="C194" s="169"/>
-      <c r="D194" s="223"/>
+      <c r="D194" s="221"/>
       <c r="F194" s="65"/>
       <c r="G194" s="65"/>
       <c r="H194" s="65"/>
@@ -25175,7 +25167,7 @@
     <row r="195" spans="2:13" s="144" customFormat="1">
       <c r="B195" s="169"/>
       <c r="C195" s="169"/>
-      <c r="D195" s="223"/>
+      <c r="D195" s="221"/>
       <c r="F195" s="65"/>
       <c r="G195" s="65"/>
       <c r="H195" s="65"/>
@@ -25188,7 +25180,7 @@
     <row r="196" spans="2:13" s="144" customFormat="1">
       <c r="B196" s="169"/>
       <c r="C196" s="169"/>
-      <c r="D196" s="223"/>
+      <c r="D196" s="221"/>
       <c r="F196" s="65"/>
       <c r="G196" s="65"/>
       <c r="H196" s="65"/>
@@ -25201,7 +25193,7 @@
     <row r="197" spans="2:13" s="144" customFormat="1">
       <c r="B197" s="169"/>
       <c r="C197" s="169"/>
-      <c r="D197" s="223"/>
+      <c r="D197" s="221"/>
       <c r="F197" s="65"/>
       <c r="G197" s="65"/>
       <c r="H197" s="65"/>
@@ -25214,7 +25206,7 @@
     <row r="198" spans="2:13" s="144" customFormat="1">
       <c r="B198" s="169"/>
       <c r="C198" s="169"/>
-      <c r="D198" s="223"/>
+      <c r="D198" s="221"/>
       <c r="F198" s="65"/>
       <c r="G198" s="65"/>
       <c r="H198" s="65"/>
@@ -25227,7 +25219,7 @@
     <row r="199" spans="2:13" s="144" customFormat="1">
       <c r="B199" s="169"/>
       <c r="C199" s="169"/>
-      <c r="D199" s="223"/>
+      <c r="D199" s="221"/>
       <c r="F199" s="65"/>
       <c r="G199" s="65"/>
       <c r="H199" s="65"/>
@@ -25240,7 +25232,7 @@
     <row r="200" spans="2:13" s="144" customFormat="1">
       <c r="B200" s="169"/>
       <c r="C200" s="169"/>
-      <c r="D200" s="223"/>
+      <c r="D200" s="221"/>
       <c r="F200" s="65"/>
       <c r="G200" s="65"/>
       <c r="H200" s="65"/>
@@ -25253,7 +25245,7 @@
     <row r="201" spans="2:13" s="144" customFormat="1">
       <c r="B201" s="169"/>
       <c r="C201" s="169"/>
-      <c r="D201" s="223"/>
+      <c r="D201" s="221"/>
       <c r="F201" s="65"/>
       <c r="G201" s="65"/>
       <c r="H201" s="65"/>
@@ -25266,7 +25258,7 @@
     <row r="202" spans="2:13" s="144" customFormat="1">
       <c r="B202" s="169"/>
       <c r="C202" s="169"/>
-      <c r="D202" s="223"/>
+      <c r="D202" s="221"/>
       <c r="F202" s="65"/>
       <c r="G202" s="65"/>
       <c r="H202" s="65"/>
@@ -25279,7 +25271,7 @@
     <row r="203" spans="2:13" s="144" customFormat="1">
       <c r="B203" s="169"/>
       <c r="C203" s="169"/>
-      <c r="D203" s="223"/>
+      <c r="D203" s="221"/>
       <c r="F203" s="65"/>
       <c r="G203" s="65"/>
       <c r="H203" s="65"/>
@@ -25292,7 +25284,7 @@
     <row r="204" spans="2:13" s="144" customFormat="1">
       <c r="B204" s="169"/>
       <c r="C204" s="169"/>
-      <c r="D204" s="223"/>
+      <c r="D204" s="221"/>
       <c r="F204" s="65"/>
       <c r="G204" s="65"/>
       <c r="H204" s="65"/>
@@ -25305,7 +25297,7 @@
     <row r="205" spans="2:13" s="144" customFormat="1">
       <c r="B205" s="169"/>
       <c r="C205" s="169"/>
-      <c r="D205" s="223"/>
+      <c r="D205" s="221"/>
       <c r="F205" s="65"/>
       <c r="G205" s="65"/>
       <c r="H205" s="65"/>
@@ -25318,7 +25310,7 @@
     <row r="206" spans="2:13" s="144" customFormat="1">
       <c r="B206" s="169"/>
       <c r="C206" s="169"/>
-      <c r="D206" s="223"/>
+      <c r="D206" s="221"/>
       <c r="F206" s="65"/>
       <c r="G206" s="65"/>
       <c r="H206" s="65"/>
@@ -25331,7 +25323,7 @@
     <row r="207" spans="2:13" s="144" customFormat="1">
       <c r="B207" s="169"/>
       <c r="C207" s="169"/>
-      <c r="D207" s="223"/>
+      <c r="D207" s="221"/>
       <c r="F207" s="65"/>
       <c r="G207" s="65"/>
       <c r="H207" s="65"/>
@@ -25344,7 +25336,7 @@
     <row r="208" spans="2:13" s="144" customFormat="1">
       <c r="B208" s="169"/>
       <c r="C208" s="169"/>
-      <c r="D208" s="223"/>
+      <c r="D208" s="221"/>
       <c r="F208" s="65"/>
       <c r="G208" s="65"/>
       <c r="H208" s="65"/>
@@ -25357,7 +25349,7 @@
     <row r="209" spans="2:13" s="144" customFormat="1">
       <c r="B209" s="169"/>
       <c r="C209" s="169"/>
-      <c r="D209" s="223"/>
+      <c r="D209" s="221"/>
       <c r="F209" s="65"/>
       <c r="G209" s="65"/>
       <c r="H209" s="65"/>
@@ -25370,7 +25362,7 @@
     <row r="210" spans="2:13" s="144" customFormat="1">
       <c r="B210" s="169"/>
       <c r="C210" s="169"/>
-      <c r="D210" s="223"/>
+      <c r="D210" s="221"/>
       <c r="F210" s="65"/>
       <c r="G210" s="65"/>
       <c r="H210" s="65"/>
@@ -25383,7 +25375,7 @@
     <row r="211" spans="2:13" s="144" customFormat="1">
       <c r="B211" s="169"/>
       <c r="C211" s="169"/>
-      <c r="D211" s="223"/>
+      <c r="D211" s="221"/>
       <c r="F211" s="65"/>
       <c r="G211" s="65"/>
       <c r="H211" s="65"/>
@@ -25396,7 +25388,7 @@
     <row r="212" spans="2:13" s="144" customFormat="1">
       <c r="B212" s="169"/>
       <c r="C212" s="169"/>
-      <c r="D212" s="223"/>
+      <c r="D212" s="221"/>
       <c r="F212" s="65"/>
       <c r="G212" s="65"/>
       <c r="H212" s="65"/>
@@ -25409,7 +25401,7 @@
     <row r="213" spans="2:13" s="144" customFormat="1">
       <c r="B213" s="169"/>
       <c r="C213" s="169"/>
-      <c r="D213" s="223"/>
+      <c r="D213" s="221"/>
       <c r="F213" s="65"/>
       <c r="G213" s="65"/>
       <c r="H213" s="65"/>
@@ -25422,7 +25414,7 @@
     <row r="214" spans="2:13" s="144" customFormat="1">
       <c r="B214" s="169"/>
       <c r="C214" s="169"/>
-      <c r="D214" s="223"/>
+      <c r="D214" s="221"/>
       <c r="F214" s="65"/>
       <c r="G214" s="65"/>
       <c r="H214" s="65"/>
@@ -25435,7 +25427,7 @@
     <row r="215" spans="2:13" s="144" customFormat="1">
       <c r="B215" s="169"/>
       <c r="C215" s="169"/>
-      <c r="D215" s="223"/>
+      <c r="D215" s="221"/>
       <c r="F215" s="65"/>
       <c r="G215" s="65"/>
       <c r="H215" s="65"/>
@@ -25448,7 +25440,7 @@
     <row r="216" spans="2:13" s="144" customFormat="1">
       <c r="B216" s="169"/>
       <c r="C216" s="169"/>
-      <c r="D216" s="223"/>
+      <c r="D216" s="221"/>
       <c r="F216" s="65"/>
       <c r="G216" s="65"/>
       <c r="H216" s="65"/>
@@ -25461,7 +25453,7 @@
     <row r="217" spans="2:13" s="144" customFormat="1">
       <c r="B217" s="169"/>
       <c r="C217" s="169"/>
-      <c r="D217" s="223"/>
+      <c r="D217" s="221"/>
       <c r="F217" s="65"/>
       <c r="G217" s="65"/>
       <c r="H217" s="65"/>
@@ -25474,7 +25466,7 @@
     <row r="218" spans="2:13" s="144" customFormat="1">
       <c r="B218" s="169"/>
       <c r="C218" s="169"/>
-      <c r="D218" s="223"/>
+      <c r="D218" s="221"/>
       <c r="F218" s="65"/>
       <c r="G218" s="65"/>
       <c r="H218" s="65"/>
@@ -25487,7 +25479,7 @@
     <row r="219" spans="2:13" s="144" customFormat="1">
       <c r="B219" s="169"/>
       <c r="C219" s="169"/>
-      <c r="D219" s="223"/>
+      <c r="D219" s="221"/>
       <c r="F219" s="65"/>
       <c r="G219" s="65"/>
       <c r="H219" s="65"/>
@@ -25500,7 +25492,7 @@
     <row r="220" spans="2:13" s="144" customFormat="1">
       <c r="B220" s="169"/>
       <c r="C220" s="169"/>
-      <c r="D220" s="223"/>
+      <c r="D220" s="221"/>
       <c r="F220" s="65"/>
       <c r="G220" s="65"/>
       <c r="H220" s="65"/>
@@ -25513,7 +25505,7 @@
     <row r="221" spans="2:13" s="144" customFormat="1">
       <c r="B221" s="169"/>
       <c r="C221" s="169"/>
-      <c r="D221" s="223"/>
+      <c r="D221" s="221"/>
       <c r="F221" s="65"/>
       <c r="G221" s="65"/>
       <c r="H221" s="65"/>
@@ -25526,7 +25518,7 @@
     <row r="222" spans="2:13" s="144" customFormat="1">
       <c r="B222" s="169"/>
       <c r="C222" s="169"/>
-      <c r="D222" s="223"/>
+      <c r="D222" s="221"/>
       <c r="F222" s="65"/>
       <c r="G222" s="65"/>
       <c r="H222" s="65"/>
@@ -25539,7 +25531,7 @@
     <row r="223" spans="2:13" s="144" customFormat="1">
       <c r="B223" s="169"/>
       <c r="C223" s="169"/>
-      <c r="D223" s="223"/>
+      <c r="D223" s="221"/>
       <c r="F223" s="65"/>
       <c r="G223" s="65"/>
       <c r="H223" s="65"/>
@@ -25552,7 +25544,7 @@
     <row r="224" spans="2:13" s="144" customFormat="1">
       <c r="B224" s="169"/>
       <c r="C224" s="169"/>
-      <c r="D224" s="223"/>
+      <c r="D224" s="221"/>
       <c r="F224" s="65"/>
       <c r="G224" s="65"/>
       <c r="H224" s="65"/>
@@ -33627,7 +33619,7 @@
   </sheetPr>
   <dimension ref="A1:Y217"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
@@ -33702,7 +33694,7 @@
         <v>114</v>
       </c>
       <c r="B4" s="364"/>
-      <c r="C4" s="272"/>
+      <c r="C4" s="270"/>
       <c r="D4" s="365" t="s">
         <v>113</v>
       </c>
@@ -33732,18 +33724,18 @@
       <c r="A5" s="38" t="s">
         <v>112</v>
       </c>
-      <c r="B5" s="258">
+      <c r="B5" s="256">
         <v>8000000</v>
       </c>
       <c r="C5" s="39"/>
       <c r="D5" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="254">
+      <c r="E5" s="252">
         <v>5862215.6698058248</v>
       </c>
       <c r="F5" s="34"/>
-      <c r="G5" s="269"/>
+      <c r="G5" s="267"/>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
@@ -33767,18 +33759,18 @@
       <c r="A6" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="258">
+      <c r="B6" s="256">
         <v>8745.6516990291293</v>
       </c>
       <c r="C6" s="41"/>
       <c r="D6" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="254">
+      <c r="E6" s="252">
         <v>28038</v>
       </c>
       <c r="F6" s="7"/>
-      <c r="G6" s="270"/>
+      <c r="G6" s="268"/>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
@@ -33799,17 +33791,17 @@
       <c r="Y6" s="7"/>
     </row>
     <row r="7" spans="1:25" ht="21.75">
-      <c r="A7" s="312"/>
-      <c r="B7" s="276"/>
+      <c r="A7" s="310"/>
+      <c r="B7" s="274"/>
       <c r="C7" s="41"/>
       <c r="D7" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="E7" s="285">
+      <c r="E7" s="283">
         <v>65524.330194175243</v>
       </c>
       <c r="F7" s="7"/>
-      <c r="G7" s="270"/>
+      <c r="G7" s="268"/>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
@@ -33830,13 +33822,13 @@
       <c r="Y7" s="7"/>
     </row>
     <row r="8" spans="1:25" ht="21.75">
-      <c r="A8" s="305"/>
-      <c r="B8" s="276"/>
+      <c r="A8" s="303"/>
+      <c r="B8" s="274"/>
       <c r="C8" s="39"/>
-      <c r="D8" s="249"/>
-      <c r="E8" s="255"/>
+      <c r="D8" s="247"/>
+      <c r="E8" s="253"/>
       <c r="F8" s="7"/>
-      <c r="G8" s="246"/>
+      <c r="G8" s="244"/>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
@@ -33860,14 +33852,14 @@
       <c r="A9" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="258">
+      <c r="B9" s="256">
         <v>3630</v>
       </c>
       <c r="C9" s="40"/>
       <c r="D9" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="254">
+      <c r="E9" s="252">
         <v>3132265</v>
       </c>
       <c r="F9" s="7"/>
@@ -33895,18 +33887,18 @@
       <c r="A10" s="38" t="s">
         <v>184</v>
       </c>
-      <c r="B10" s="258">
+      <c r="B10" s="256">
         <v>0</v>
       </c>
       <c r="C10" s="40"/>
       <c r="D10" s="39" t="s">
         <v>209</v>
       </c>
-      <c r="E10" s="256">
+      <c r="E10" s="254">
         <v>3457</v>
       </c>
       <c r="F10" s="7"/>
-      <c r="G10" s="246"/>
+      <c r="G10" s="244"/>
       <c r="H10" s="7"/>
       <c r="I10" s="7" t="s">
         <v>12</v>
@@ -33929,18 +33921,18 @@
       <c r="Y10" s="7"/>
     </row>
     <row r="11" spans="1:25" ht="21.75">
-      <c r="A11" s="367" t="s">
+      <c r="A11" s="313" t="s">
         <v>177</v>
       </c>
-      <c r="B11" s="368">
+      <c r="B11" s="314">
         <f>B6-B9-B10</f>
         <v>5115.6516990291293</v>
       </c>
       <c r="C11" s="40"/>
-      <c r="D11" s="306"/>
-      <c r="E11" s="256"/>
+      <c r="D11" s="304"/>
+      <c r="E11" s="254"/>
       <c r="F11" s="7"/>
-      <c r="G11" s="246"/>
+      <c r="G11" s="244"/>
       <c r="H11" s="7"/>
       <c r="J11" s="7"/>
       <c r="K11" s="7"/>
@@ -33960,15 +33952,15 @@
       <c r="Y11" s="7"/>
     </row>
     <row r="12" spans="1:25" ht="21.75">
-      <c r="A12" s="287"/>
-      <c r="B12" s="258"/>
+      <c r="A12" s="285"/>
+      <c r="B12" s="256"/>
       <c r="C12" s="40"/>
       <c r="D12" s="40"/>
-      <c r="E12" s="254"/>
+      <c r="E12" s="252"/>
       <c r="F12" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="G12" s="247"/>
+      <c r="G12" s="245"/>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
       <c r="J12" s="7"/>
@@ -33989,13 +33981,13 @@
       <c r="Y12" s="7"/>
     </row>
     <row r="13" spans="1:25" ht="21.75">
-      <c r="A13" s="287"/>
-      <c r="B13" s="258"/>
+      <c r="A13" s="285"/>
+      <c r="B13" s="256"/>
       <c r="C13" s="40"/>
       <c r="D13" s="39"/>
-      <c r="E13" s="256"/>
+      <c r="E13" s="254"/>
       <c r="F13" s="7"/>
-      <c r="G13" s="247"/>
+      <c r="G13" s="245"/>
       <c r="H13" s="7"/>
       <c r="I13" s="7" t="s">
         <v>178</v>
@@ -34018,21 +34010,21 @@
       <c r="Y13" s="7"/>
     </row>
     <row r="14" spans="1:25" ht="21.75">
-      <c r="A14" s="314" t="s">
+      <c r="A14" s="312" t="s">
         <v>216</v>
       </c>
-      <c r="B14" s="276">
+      <c r="B14" s="274">
         <v>1100000</v>
       </c>
       <c r="C14" s="39"/>
       <c r="D14" s="39" t="s">
         <v>168</v>
       </c>
-      <c r="E14" s="254">
+      <c r="E14" s="252">
         <v>8500</v>
       </c>
       <c r="F14" s="7"/>
-      <c r="G14" s="247"/>
+      <c r="G14" s="245"/>
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
@@ -34053,13 +34045,13 @@
       <c r="Y14" s="7"/>
     </row>
     <row r="15" spans="1:25" ht="21.75">
-      <c r="A15" s="287"/>
-      <c r="B15" s="258"/>
+      <c r="A15" s="285"/>
+      <c r="B15" s="256"/>
       <c r="C15" s="40"/>
       <c r="D15" s="40"/>
-      <c r="E15" s="257"/>
+      <c r="E15" s="255"/>
       <c r="F15" s="7"/>
-      <c r="G15" s="248"/>
+      <c r="G15" s="246"/>
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
@@ -34080,13 +34072,13 @@
       <c r="Y15" s="7"/>
     </row>
     <row r="16" spans="1:25" ht="21.75">
-      <c r="A16" s="287"/>
-      <c r="B16" s="258"/>
+      <c r="A16" s="285"/>
+      <c r="B16" s="256"/>
       <c r="C16" s="40"/>
       <c r="D16" s="129"/>
-      <c r="E16" s="256"/>
+      <c r="E16" s="254"/>
       <c r="F16" s="7"/>
-      <c r="G16" s="248"/>
+      <c r="G16" s="246"/>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
       <c r="J16" s="7"/>
@@ -34110,7 +34102,7 @@
       <c r="A17" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="259">
+      <c r="B17" s="257">
         <f>B5+B14+B15+B16</f>
         <v>9100000</v>
       </c>
@@ -34118,7 +34110,7 @@
       <c r="D17" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="E17" s="257">
+      <c r="E17" s="255">
         <f>SUM(E5:E16)</f>
         <v>9100000</v>
       </c>
@@ -34211,11 +34203,11 @@
       <c r="B20" s="48">
         <v>78000</v>
       </c>
-      <c r="C20" s="291"/>
-      <c r="D20" s="277" t="s">
+      <c r="C20" s="289"/>
+      <c r="D20" s="275" t="s">
         <v>16</v>
       </c>
-      <c r="E20" s="313">
+      <c r="E20" s="311">
         <v>567410</v>
       </c>
       <c r="F20" s="5"/>
@@ -34245,10 +34237,10 @@
         <v>20000</v>
       </c>
       <c r="C21" s="39"/>
-      <c r="D21" s="277" t="s">
+      <c r="D21" s="275" t="s">
         <v>131</v>
       </c>
-      <c r="E21" s="313">
+      <c r="E21" s="311">
         <v>509750</v>
       </c>
       <c r="F21" s="5"/>
@@ -34270,17 +34262,17 @@
       <c r="Y21" s="7"/>
     </row>
     <row r="22" spans="1:25" ht="21.75">
-      <c r="A22" s="260" t="s">
+      <c r="A22" s="258" t="s">
         <v>171</v>
       </c>
       <c r="B22" s="127">
         <v>26000</v>
       </c>
       <c r="C22" s="39"/>
-      <c r="D22" s="277" t="s">
+      <c r="D22" s="275" t="s">
         <v>123</v>
       </c>
-      <c r="E22" s="313">
+      <c r="E22" s="311">
         <v>360900</v>
       </c>
       <c r="G22" s="17"/>
@@ -34301,17 +34293,17 @@
       <c r="Y22" s="7"/>
     </row>
     <row r="23" spans="1:25" ht="21.75">
-      <c r="A23" s="260" t="s">
+      <c r="A23" s="258" t="s">
         <v>176</v>
       </c>
       <c r="B23" s="127">
         <v>17400</v>
       </c>
       <c r="C23" s="39"/>
-      <c r="D23" s="277" t="s">
+      <c r="D23" s="275" t="s">
         <v>120</v>
       </c>
-      <c r="E23" s="313">
+      <c r="E23" s="311">
         <v>250000</v>
       </c>
       <c r="M23" s="7"/>
@@ -34336,10 +34328,10 @@
         <v>26000</v>
       </c>
       <c r="C24" s="39"/>
-      <c r="D24" s="277" t="s">
+      <c r="D24" s="275" t="s">
         <v>135</v>
       </c>
-      <c r="E24" s="278">
+      <c r="E24" s="276">
         <v>153780</v>
       </c>
       <c r="N24" s="7"/>
@@ -34363,10 +34355,10 @@
         <v>19600</v>
       </c>
       <c r="C25" s="39"/>
-      <c r="D25" s="277" t="s">
+      <c r="D25" s="275" t="s">
         <v>132</v>
       </c>
-      <c r="E25" s="278">
+      <c r="E25" s="276">
         <v>68000</v>
       </c>
       <c r="G25" s="33"/>
@@ -34385,17 +34377,17 @@
       <c r="Y25" s="7"/>
     </row>
     <row r="26" spans="1:25" ht="21.75">
-      <c r="A26" s="292" t="s">
+      <c r="A26" s="290" t="s">
         <v>115</v>
       </c>
-      <c r="B26" s="293">
+      <c r="B26" s="291">
         <v>22000</v>
       </c>
       <c r="C26" s="128"/>
-      <c r="D26" s="277" t="s">
+      <c r="D26" s="275" t="s">
         <v>160</v>
       </c>
-      <c r="E26" s="278">
+      <c r="E26" s="276">
         <v>66000</v>
       </c>
       <c r="G26" s="33"/>
@@ -34413,17 +34405,17 @@
       <c r="Y26" s="7"/>
     </row>
     <row r="27" spans="1:25" ht="21.75">
-      <c r="A27" s="280" t="s">
+      <c r="A27" s="278" t="s">
         <v>198</v>
       </c>
-      <c r="B27" s="281">
+      <c r="B27" s="279">
         <v>23000</v>
       </c>
       <c r="C27" s="128"/>
-      <c r="D27" s="283" t="s">
+      <c r="D27" s="281" t="s">
         <v>136</v>
       </c>
-      <c r="E27" s="284">
+      <c r="E27" s="282">
         <v>78560</v>
       </c>
       <c r="G27" s="33"/>
@@ -34443,17 +34435,17 @@
       <c r="Y27" s="7"/>
     </row>
     <row r="28" spans="1:25" ht="21.75">
-      <c r="A28" s="280" t="s">
+      <c r="A28" s="278" t="s">
         <v>153</v>
       </c>
-      <c r="B28" s="281">
+      <c r="B28" s="279">
         <v>30000</v>
       </c>
-      <c r="C28" s="282"/>
-      <c r="D28" s="283" t="s">
+      <c r="C28" s="280"/>
+      <c r="D28" s="281" t="s">
         <v>133</v>
       </c>
-      <c r="E28" s="284">
+      <c r="E28" s="282">
         <v>38000</v>
       </c>
       <c r="G28" s="16"/>
@@ -34471,17 +34463,17 @@
       <c r="Y28" s="7"/>
     </row>
     <row r="29" spans="1:25" ht="21.75">
-      <c r="A29" s="280" t="s">
+      <c r="A29" s="278" t="s">
         <v>210</v>
       </c>
-      <c r="B29" s="281">
+      <c r="B29" s="279">
         <v>36790</v>
       </c>
-      <c r="C29" s="282"/>
-      <c r="D29" s="303" t="s">
+      <c r="C29" s="280"/>
+      <c r="D29" s="301" t="s">
         <v>182</v>
       </c>
-      <c r="E29" s="294">
+      <c r="E29" s="292">
         <v>20000</v>
       </c>
       <c r="G29" s="16"/>
@@ -34500,17 +34492,17 @@
       <c r="Y29" s="7"/>
     </row>
     <row r="30" spans="1:25" ht="21.75">
-      <c r="A30" s="280" t="s">
+      <c r="A30" s="278" t="s">
         <v>174</v>
       </c>
-      <c r="B30" s="281">
+      <c r="B30" s="279">
         <v>28210</v>
       </c>
-      <c r="C30" s="282"/>
-      <c r="D30" s="283" t="s">
+      <c r="C30" s="280"/>
+      <c r="D30" s="281" t="s">
         <v>134</v>
       </c>
-      <c r="E30" s="284">
+      <c r="E30" s="282">
         <v>42730</v>
       </c>
       <c r="G30" s="16"/>
@@ -34528,17 +34520,17 @@
       <c r="Y30" s="7"/>
     </row>
     <row r="31" spans="1:25" ht="21.75">
-      <c r="A31" s="280" t="s">
+      <c r="A31" s="278" t="s">
         <v>140</v>
       </c>
-      <c r="B31" s="281">
+      <c r="B31" s="279">
         <v>230000</v>
       </c>
-      <c r="C31" s="282"/>
-      <c r="D31" s="283" t="s">
+      <c r="C31" s="280"/>
+      <c r="D31" s="281" t="s">
         <v>175</v>
       </c>
-      <c r="E31" s="284">
+      <c r="E31" s="282">
         <v>22000</v>
       </c>
       <c r="G31" s="16"/>
@@ -34557,17 +34549,17 @@
       <c r="Y31" s="7"/>
     </row>
     <row r="32" spans="1:25" ht="21.75">
-      <c r="A32" s="280" t="s">
+      <c r="A32" s="278" t="s">
         <v>157</v>
       </c>
-      <c r="B32" s="281">
+      <c r="B32" s="279">
         <v>20080</v>
       </c>
-      <c r="C32" s="282"/>
-      <c r="D32" s="283" t="s">
+      <c r="C32" s="280"/>
+      <c r="D32" s="281" t="s">
         <v>18</v>
       </c>
-      <c r="E32" s="284">
+      <c r="E32" s="282">
         <v>79590</v>
       </c>
       <c r="G32" s="16"/>
@@ -34588,17 +34580,17 @@
       <c r="Y32" s="7"/>
     </row>
     <row r="33" spans="1:25" ht="22.5" thickBot="1">
-      <c r="A33" s="307" t="s">
+      <c r="A33" s="305" t="s">
         <v>172</v>
       </c>
-      <c r="B33" s="308">
+      <c r="B33" s="306">
         <v>43500</v>
       </c>
-      <c r="C33" s="309"/>
-      <c r="D33" s="310" t="s">
+      <c r="C33" s="307"/>
+      <c r="D33" s="308" t="s">
         <v>165</v>
       </c>
-      <c r="E33" s="311">
+      <c r="E33" s="309">
         <v>50000</v>
       </c>
       <c r="G33" s="16"/>
